--- a/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="10668" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="875">
   <si>
     <t>界面编号</t>
   </si>
@@ -3153,6 +3153,51 @@
   <si>
     <t>Blood oxygen saturation</t>
   </si>
+  <si>
+    <t>宫格</t>
+  </si>
+  <si>
+    <t>STR_GONG_GE</t>
+  </si>
+  <si>
+    <t>Gong Ge</t>
+  </si>
+  <si>
+    <t>球体</t>
+  </si>
+  <si>
+    <t>STR_SPHERE</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>棋盘</t>
+  </si>
+  <si>
+    <t>STR_CHECKERBOARD</t>
+  </si>
+  <si>
+    <t>checkerboard</t>
+  </si>
+  <si>
+    <t>光环</t>
+  </si>
+  <si>
+    <t>STR_HALO</t>
+  </si>
+  <si>
+    <t>halo</t>
+  </si>
+  <si>
+    <t>六宫格</t>
+  </si>
+  <si>
+    <t>STR_SIX_PALACE_GRID</t>
+  </si>
+  <si>
+    <t>Six Palace Grid</t>
+  </si>
 </sst>
 </file>
 
@@ -3164,7 +3209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3374,6 +3419,12 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4331,31 +4382,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4364,115 +4412,118 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4798,8 +4849,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4822,7 +4873,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4838,7 +4889,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4853,7 +4904,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4862,22 +4913,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4898,7 +4949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4931,16 +4982,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4972,13 +5023,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5071,13 +5122,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5116,7 +5167,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5467,15 +5518,15 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F270" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F276" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B279" sqref="B279"/>
+      <selection pane="bottomRight" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
@@ -5512,15 +5563,15 @@
     <col min="36" max="36" width="10" style="5"/>
     <col min="37" max="37" width="25.6666666666667" style="5" customWidth="1"/>
     <col min="38" max="38" width="10" style="5"/>
-    <col min="39" max="39" width="16.4416666666667" style="5" customWidth="1"/>
+    <col min="39" max="39" width="16.4444444444444" style="5" customWidth="1"/>
     <col min="40" max="43" width="10" style="5"/>
-    <col min="44" max="44" width="25.4416666666667" style="5" customWidth="1"/>
+    <col min="44" max="44" width="25.4444444444444" style="5" customWidth="1"/>
     <col min="45" max="47" width="10" style="5"/>
     <col min="48" max="48" width="49" style="5" customWidth="1"/>
     <col min="49" max="49" width="45.6666666666667" style="5" customWidth="1"/>
-    <col min="50" max="50" width="62.5583333333333" style="5" customWidth="1"/>
+    <col min="50" max="50" width="62.5555555555556" style="5" customWidth="1"/>
     <col min="51" max="51" width="10" style="5"/>
-    <col min="52" max="52" width="35.775" style="5" customWidth="1"/>
+    <col min="52" max="52" width="35.7777777777778" style="5" customWidth="1"/>
     <col min="53" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
@@ -7264,7 +7315,7 @@
       <c r="AV28" s="18"/>
       <c r="AZ28" s="45"/>
     </row>
-    <row r="29" ht="18.75" spans="1:52">
+    <row r="29" ht="18" spans="1:52">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -7323,7 +7374,7 @@
       <c r="AV29" s="18"/>
       <c r="AZ29" s="45"/>
     </row>
-    <row r="30" ht="18.75" spans="1:52">
+    <row r="30" ht="18" spans="1:52">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -7382,7 +7433,7 @@
       <c r="AV30" s="18"/>
       <c r="AZ30" s="44"/>
     </row>
-    <row r="31" ht="18.75" spans="1:52">
+    <row r="31" ht="18" spans="1:52">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -7500,7 +7551,7 @@
       <c r="AV32" s="18"/>
       <c r="AZ32" s="44"/>
     </row>
-    <row r="33" ht="18.75" spans="1:52">
+    <row r="33" ht="18" spans="1:52">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -7559,7 +7610,7 @@
       <c r="AV33" s="18"/>
       <c r="AZ33" s="45"/>
     </row>
-    <row r="34" ht="18.75" spans="1:52">
+    <row r="34" ht="18" spans="1:52">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -7618,7 +7669,7 @@
       <c r="AV34" s="18"/>
       <c r="AZ34" s="45"/>
     </row>
-    <row r="35" ht="18.75" spans="1:52">
+    <row r="35" ht="18" spans="1:52">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -7677,7 +7728,7 @@
       <c r="AV35" s="18"/>
       <c r="AZ35" s="18"/>
     </row>
-    <row r="36" ht="18.75" spans="1:52">
+    <row r="36" ht="18" spans="1:52">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -10509,7 +10560,7 @@
       <c r="AV83" s="18"/>
       <c r="AZ83" s="44"/>
     </row>
-    <row r="84" ht="18.75" spans="1:52">
+    <row r="84" ht="18" spans="1:52">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -10568,7 +10619,7 @@
       <c r="AV84" s="18"/>
       <c r="AZ84" s="44"/>
     </row>
-    <row r="85" ht="18.75" spans="1:52">
+    <row r="85" ht="18" spans="1:52">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -12220,7 +12271,7 @@
       <c r="AV112" s="64"/>
       <c r="AZ112" s="45"/>
     </row>
-    <row r="113" ht="18.75" spans="1:52">
+    <row r="113" ht="18" spans="1:52">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -12279,7 +12330,7 @@
       <c r="AV113" s="64"/>
       <c r="AZ113" s="45"/>
     </row>
-    <row r="114" ht="18.75" spans="1:52">
+    <row r="114" ht="18" spans="1:52">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -22020,12 +22071,20 @@
       <c r="AV278" s="18"/>
       <c r="AZ278" s="44"/>
     </row>
-    <row r="279" ht="105" customHeight="1" spans="1:52">
-      <c r="A279" s="12"/>
+    <row r="279" ht="32" customHeight="1" spans="1:52">
+      <c r="A279" s="12">
+        <v>277</v>
+      </c>
       <c r="B279" s="50"/>
-      <c r="C279" s="89"/>
-      <c r="D279" s="107"/>
-      <c r="E279" s="89"/>
+      <c r="C279" s="89" t="s">
+        <v>860</v>
+      </c>
+      <c r="D279" s="107" t="s">
+        <v>861</v>
+      </c>
+      <c r="E279" s="89" t="s">
+        <v>862</v>
+      </c>
       <c r="F279" s="88"/>
       <c r="G279" s="89"/>
       <c r="H279" s="89"/>
@@ -22071,12 +22130,20 @@
       <c r="AV279" s="89"/>
       <c r="AZ279" s="44"/>
     </row>
-    <row r="280" ht="69.75" customHeight="1" spans="1:52">
-      <c r="A280" s="12"/>
+    <row r="280" ht="27" customHeight="1" spans="1:52">
+      <c r="A280" s="12">
+        <v>278</v>
+      </c>
       <c r="B280" s="108"/>
-      <c r="C280" s="82"/>
-      <c r="D280" s="106"/>
-      <c r="E280" s="82"/>
+      <c r="C280" s="82" t="s">
+        <v>863</v>
+      </c>
+      <c r="D280" s="107" t="s">
+        <v>864</v>
+      </c>
+      <c r="E280" s="82" t="s">
+        <v>865</v>
+      </c>
       <c r="F280" s="83"/>
       <c r="G280" s="82"/>
       <c r="H280" s="82"/>
@@ -22122,12 +22189,20 @@
       <c r="AV280" s="82"/>
       <c r="AZ280" s="44"/>
     </row>
-    <row r="281" ht="87.75" customHeight="1" spans="1:52">
-      <c r="A281" s="12"/>
+    <row r="281" ht="22" customHeight="1" spans="1:52">
+      <c r="A281" s="12">
+        <v>279</v>
+      </c>
       <c r="B281" s="108"/>
-      <c r="C281" s="82"/>
-      <c r="D281" s="106"/>
-      <c r="E281" s="82"/>
+      <c r="C281" s="82" t="s">
+        <v>866</v>
+      </c>
+      <c r="D281" s="107" t="s">
+        <v>867</v>
+      </c>
+      <c r="E281" s="82" t="s">
+        <v>868</v>
+      </c>
       <c r="F281" s="83"/>
       <c r="G281" s="82"/>
       <c r="H281" s="82"/>
@@ -22173,12 +22248,20 @@
       <c r="AV281" s="82"/>
       <c r="AZ281" s="44"/>
     </row>
-    <row r="282" ht="18.75" spans="1:52">
-      <c r="A282" s="12"/>
+    <row r="282" ht="29" customHeight="1" spans="1:52">
+      <c r="A282" s="12">
+        <v>280</v>
+      </c>
       <c r="B282" s="108"/>
-      <c r="C282" s="82"/>
-      <c r="D282" s="106"/>
-      <c r="E282" s="82"/>
+      <c r="C282" s="82" t="s">
+        <v>869</v>
+      </c>
+      <c r="D282" s="107" t="s">
+        <v>870</v>
+      </c>
+      <c r="E282" s="82" t="s">
+        <v>871</v>
+      </c>
       <c r="F282" s="83"/>
       <c r="G282" s="82"/>
       <c r="H282" s="82"/>
@@ -22224,12 +22307,20 @@
       <c r="AV282" s="82"/>
       <c r="AZ282" s="44"/>
     </row>
-    <row r="283" ht="18.75" spans="1:52">
-      <c r="A283" s="12"/>
+    <row r="283" ht="33" customHeight="1" spans="1:52">
+      <c r="A283" s="12">
+        <v>281</v>
+      </c>
       <c r="B283" s="108"/>
-      <c r="C283" s="82"/>
-      <c r="D283" s="106"/>
-      <c r="E283" s="82"/>
+      <c r="C283" s="82" t="s">
+        <v>872</v>
+      </c>
+      <c r="D283" s="107" t="s">
+        <v>873</v>
+      </c>
+      <c r="E283" s="82" t="s">
+        <v>874</v>
+      </c>
       <c r="F283" s="83"/>
       <c r="G283" s="82"/>
       <c r="H283" s="82"/>
@@ -22275,11 +22366,11 @@
       <c r="AV283" s="82"/>
       <c r="AZ283" s="44"/>
     </row>
-    <row r="284" ht="18.75" spans="1:52">
+    <row r="284" ht="17.4" spans="1:52">
       <c r="A284" s="12"/>
       <c r="B284" s="108"/>
       <c r="C284" s="82"/>
-      <c r="D284" s="106"/>
+      <c r="D284" s="105"/>
       <c r="E284" s="82"/>
       <c r="F284" s="83"/>
       <c r="G284" s="82"/>
@@ -22326,11 +22417,10 @@
       <c r="AV284" s="82"/>
       <c r="AZ284" s="44"/>
     </row>
-    <row r="285" ht="18.75" spans="1:52">
+    <row r="285" ht="17.4" spans="1:52">
       <c r="A285" s="12"/>
       <c r="B285" s="108"/>
       <c r="C285" s="82"/>
-      <c r="D285" s="106"/>
       <c r="E285" s="82"/>
       <c r="F285" s="83"/>
       <c r="G285" s="82"/>
@@ -22377,11 +22467,11 @@
       <c r="AV285" s="82"/>
       <c r="AZ285" s="44"/>
     </row>
-    <row r="286" ht="18.75" spans="1:52">
+    <row r="286" ht="17.4" spans="1:52">
       <c r="A286" s="12"/>
       <c r="B286" s="108"/>
       <c r="C286" s="82"/>
-      <c r="D286" s="106"/>
+      <c r="D286" s="105"/>
       <c r="E286" s="82"/>
       <c r="F286" s="83"/>
       <c r="G286" s="82"/>
@@ -22428,11 +22518,10 @@
       <c r="AV286" s="82"/>
       <c r="AZ286" s="18"/>
     </row>
-    <row r="287" ht="18.75" spans="1:52">
+    <row r="287" ht="17.4" spans="1:52">
       <c r="A287" s="12"/>
       <c r="B287" s="108"/>
       <c r="C287" s="82"/>
-      <c r="D287" s="106"/>
       <c r="E287" s="82"/>
       <c r="F287" s="83"/>
       <c r="G287" s="82"/>
@@ -22479,7 +22568,7 @@
       <c r="AV287" s="82"/>
       <c r="AZ287" s="44"/>
     </row>
-    <row r="288" ht="18.75" spans="1:52">
+    <row r="288" ht="17.4" spans="1:52">
       <c r="A288" s="12"/>
       <c r="B288" s="108"/>
       <c r="C288" s="82"/>
@@ -22530,7 +22619,7 @@
       <c r="AV288" s="82"/>
       <c r="AZ288" s="44"/>
     </row>
-    <row r="289" ht="18.75" spans="1:52">
+    <row r="289" ht="17.4" spans="1:52">
       <c r="A289" s="12"/>
       <c r="B289" s="108"/>
       <c r="C289" s="82"/>
@@ -22632,7 +22721,7 @@
       <c r="AV290" s="82"/>
       <c r="AZ290" s="45"/>
     </row>
-    <row r="291" ht="18.75" spans="1:52">
+    <row r="291" ht="17.4" spans="1:52">
       <c r="A291" s="12"/>
       <c r="B291" s="108"/>
       <c r="C291" s="82"/>
@@ -22734,7 +22823,7 @@
       <c r="AV292" s="102"/>
       <c r="AZ292" s="44"/>
     </row>
-    <row r="293" ht="18.75" spans="1:52">
+    <row r="293" ht="17.4" spans="1:52">
       <c r="A293" s="12"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -22785,7 +22874,7 @@
       <c r="AV293" s="18"/>
       <c r="AZ293" s="44"/>
     </row>
-    <row r="294" ht="18.75" spans="1:52">
+    <row r="294" ht="17.4" spans="1:52">
       <c r="A294" s="12"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -22836,7 +22925,7 @@
       <c r="AV294" s="18"/>
       <c r="AZ294" s="44"/>
     </row>
-    <row r="295" ht="18.75" spans="1:52">
+    <row r="295" ht="17.4" spans="1:52">
       <c r="A295" s="12"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -22887,7 +22976,7 @@
       <c r="AV295" s="82"/>
       <c r="AZ295" s="44"/>
     </row>
-    <row r="296" ht="18.75" spans="1:52">
+    <row r="296" ht="17.4" spans="1:52">
       <c r="A296" s="12"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -22938,7 +23027,7 @@
       <c r="AV296" s="18"/>
       <c r="AZ296" s="44"/>
     </row>
-    <row r="297" ht="18.75" spans="1:52">
+    <row r="297" ht="17.4" spans="1:52">
       <c r="A297" s="12"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -23040,7 +23129,7 @@
       <c r="AV298" s="18"/>
       <c r="AZ298" s="44"/>
     </row>
-    <row r="299" ht="18.75" spans="1:52">
+    <row r="299" ht="17.4" spans="1:52">
       <c r="A299" s="12"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -23091,7 +23180,7 @@
       <c r="AV299" s="18"/>
       <c r="AZ299" s="44"/>
     </row>
-    <row r="300" ht="18.75" spans="1:52">
+    <row r="300" ht="17.4" spans="1:52">
       <c r="A300" s="12"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -23142,7 +23231,7 @@
       <c r="AV300" s="18"/>
       <c r="AZ300" s="44"/>
     </row>
-    <row r="301" ht="18.75" spans="1:52">
+    <row r="301" ht="17.4" spans="1:52">
       <c r="A301" s="12"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -23193,7 +23282,7 @@
       <c r="AV301" s="18"/>
       <c r="AZ301" s="44"/>
     </row>
-    <row r="302" ht="18.75" spans="1:52">
+    <row r="302" ht="17.4" spans="1:52">
       <c r="A302" s="12"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -23244,7 +23333,7 @@
       <c r="AV302" s="18"/>
       <c r="AZ302" s="44"/>
     </row>
-    <row r="303" ht="18.75" spans="1:52">
+    <row r="303" ht="17.4" spans="1:52">
       <c r="A303" s="12"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -23295,7 +23384,7 @@
       <c r="AV303" s="18"/>
       <c r="AZ303" s="44"/>
     </row>
-    <row r="304" ht="18.75" spans="1:52">
+    <row r="304" ht="17.4" spans="1:52">
       <c r="A304" s="12"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -23346,7 +23435,7 @@
       <c r="AV304" s="18"/>
       <c r="AZ304" s="44"/>
     </row>
-    <row r="305" ht="18.75" spans="1:52">
+    <row r="305" ht="17.4" spans="1:52">
       <c r="A305" s="12"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -23397,7 +23486,7 @@
       <c r="AV305" s="18"/>
       <c r="AZ305" s="44"/>
     </row>
-    <row r="306" ht="18.75" spans="1:52">
+    <row r="306" ht="18" spans="1:52">
       <c r="A306" s="12"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -23448,7 +23537,7 @@
       <c r="AV306" s="18"/>
       <c r="AZ306" s="44"/>
     </row>
-    <row r="307" ht="18.75" spans="1:52">
+    <row r="307" ht="18" spans="1:52">
       <c r="A307" s="12"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -23499,7 +23588,7 @@
       <c r="AV307" s="18"/>
       <c r="AZ307" s="44"/>
     </row>
-    <row r="308" ht="18.75" spans="1:52">
+    <row r="308" ht="17.4" spans="1:52">
       <c r="A308" s="12"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -23550,7 +23639,7 @@
       <c r="AV308" s="18"/>
       <c r="AZ308" s="44"/>
     </row>
-    <row r="309" ht="18.75" spans="1:52">
+    <row r="309" ht="17.4" spans="1:52">
       <c r="A309" s="12"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -23601,7 +23690,7 @@
       <c r="AV309" s="18"/>
       <c r="AZ309" s="44"/>
     </row>
-    <row r="310" ht="18.75" spans="1:52">
+    <row r="310" ht="17.4" spans="1:52">
       <c r="A310" s="12"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -23652,7 +23741,7 @@
       <c r="AV310" s="18"/>
       <c r="AZ310" s="44"/>
     </row>
-    <row r="311" ht="18.75" spans="1:52">
+    <row r="311" ht="17.4" spans="1:52">
       <c r="A311" s="12"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -23703,7 +23792,7 @@
       <c r="AV311" s="18"/>
       <c r="AZ311" s="44"/>
     </row>
-    <row r="312" ht="18.75" spans="1:52">
+    <row r="312" ht="17.4" spans="1:52">
       <c r="A312" s="12"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -23754,7 +23843,7 @@
       <c r="AV312" s="18"/>
       <c r="AZ312" s="44"/>
     </row>
-    <row r="313" ht="18.75" spans="1:52">
+    <row r="313" ht="17.4" spans="1:52">
       <c r="A313" s="12"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -23805,7 +23894,7 @@
       <c r="AV313" s="18"/>
       <c r="AZ313" s="44"/>
     </row>
-    <row r="314" ht="18.75" spans="1:52">
+    <row r="314" ht="17.4" spans="1:52">
       <c r="A314" s="12"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -23856,7 +23945,7 @@
       <c r="AV314" s="18"/>
       <c r="AZ314" s="44"/>
     </row>
-    <row r="315" ht="18.75" spans="1:52">
+    <row r="315" ht="18" spans="1:52">
       <c r="A315" s="12"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -23907,7 +23996,7 @@
       <c r="AV315" s="18"/>
       <c r="AZ315" s="44"/>
     </row>
-    <row r="316" ht="18.75" spans="1:52">
+    <row r="316" ht="18" spans="1:52">
       <c r="A316" s="12"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -23958,7 +24047,7 @@
       <c r="AV316" s="18"/>
       <c r="AZ316" s="44"/>
     </row>
-    <row r="317" ht="18.75" spans="1:52">
+    <row r="317" ht="17.4" spans="1:52">
       <c r="A317" s="12"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -24009,7 +24098,7 @@
       <c r="AV317" s="18"/>
       <c r="AZ317" s="44"/>
     </row>
-    <row r="318" ht="18.75" spans="1:52">
+    <row r="318" ht="18" spans="1:52">
       <c r="A318" s="12"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -24060,7 +24149,7 @@
       <c r="AV318" s="18"/>
       <c r="AZ318" s="66"/>
     </row>
-    <row r="319" ht="18.75" spans="1:52">
+    <row r="319" ht="17.4" spans="1:52">
       <c r="A319" s="110"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -24111,7 +24200,7 @@
       <c r="AV319" s="18"/>
       <c r="AZ319" s="66"/>
     </row>
-    <row r="320" ht="18.75" spans="1:52">
+    <row r="320" ht="17.4" spans="1:52">
       <c r="A320" s="112"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -24162,7 +24251,7 @@
       <c r="AV320" s="18"/>
       <c r="AZ320" s="44"/>
     </row>
-    <row r="321" ht="18.75" spans="1:52">
+    <row r="321" ht="17.4" spans="1:52">
       <c r="A321" s="112"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -24213,7 +24302,7 @@
       <c r="AV321" s="18"/>
       <c r="AZ321" s="44"/>
     </row>
-    <row r="322" ht="18.75" spans="1:52">
+    <row r="322" ht="17.4" spans="1:52">
       <c r="A322" s="112"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -24264,7 +24353,7 @@
       <c r="AV322" s="18"/>
       <c r="AZ322" s="44"/>
     </row>
-    <row r="323" ht="18.75" spans="1:52">
+    <row r="323" ht="17.4" spans="1:52">
       <c r="A323" s="112"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -24315,7 +24404,7 @@
       <c r="AV323" s="18"/>
       <c r="AZ323" s="44"/>
     </row>
-    <row r="324" ht="18.75" spans="1:52">
+    <row r="324" ht="17.4" spans="1:52">
       <c r="A324" s="112"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -24366,7 +24455,7 @@
       <c r="AV324" s="18"/>
       <c r="AZ324" s="44"/>
     </row>
-    <row r="325" ht="18.75" spans="1:52">
+    <row r="325" ht="17.4" spans="1:52">
       <c r="A325" s="112"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -24417,7 +24506,7 @@
       <c r="AV325" s="18"/>
       <c r="AZ325" s="44"/>
     </row>
-    <row r="326" ht="18.75" spans="1:52">
+    <row r="326" ht="17.4" spans="1:52">
       <c r="A326" s="112"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -24468,7 +24557,7 @@
       <c r="AV326" s="18"/>
       <c r="AZ326" s="44"/>
     </row>
-    <row r="327" ht="18.75" spans="1:52">
+    <row r="327" ht="17.4" spans="1:52">
       <c r="A327" s="112"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -24519,7 +24608,7 @@
       <c r="AV327" s="18"/>
       <c r="AZ327" s="44"/>
     </row>
-    <row r="328" ht="18.75" spans="1:52">
+    <row r="328" ht="17.4" spans="1:52">
       <c r="A328" s="112"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -24570,7 +24659,7 @@
       <c r="AV328" s="18"/>
       <c r="AZ328" s="44"/>
     </row>
-    <row r="329" ht="18.75" spans="1:52">
+    <row r="329" ht="17.4" spans="1:52">
       <c r="A329" s="112"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -24621,7 +24710,7 @@
       <c r="AV329" s="18"/>
       <c r="AZ329" s="44"/>
     </row>
-    <row r="330" ht="18.75" spans="1:52">
+    <row r="330" ht="17.4" spans="1:52">
       <c r="A330" s="112"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -24672,7 +24761,7 @@
       <c r="AV330" s="18"/>
       <c r="AZ330" s="44"/>
     </row>
-    <row r="331" ht="18.75" spans="1:52">
+    <row r="331" ht="17.4" spans="1:52">
       <c r="A331" s="112"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -24723,7 +24812,7 @@
       <c r="AV331" s="18"/>
       <c r="AZ331" s="44"/>
     </row>
-    <row r="332" ht="18.75" spans="1:52">
+    <row r="332" ht="17.4" spans="1:52">
       <c r="A332" s="112"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -24774,7 +24863,7 @@
       <c r="AV332" s="18"/>
       <c r="AZ332" s="44"/>
     </row>
-    <row r="333" ht="18.75" spans="1:52">
+    <row r="333" ht="17.4" spans="1:52">
       <c r="A333" s="112"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -24876,7 +24965,7 @@
       <c r="AV334" s="18"/>
       <c r="AZ334" s="18"/>
     </row>
-    <row r="335" ht="18.75" spans="1:52">
+    <row r="335" ht="17.4" spans="1:52">
       <c r="A335" s="112"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -24927,7 +25016,7 @@
       <c r="AV335" s="18"/>
       <c r="AZ335" s="44"/>
     </row>
-    <row r="336" ht="18.75" spans="1:52">
+    <row r="336" ht="17.4" spans="1:52">
       <c r="A336" s="112"/>
       <c r="B336" s="137"/>
       <c r="C336" s="18"/>
@@ -24978,7 +25067,7 @@
       <c r="AV336" s="18"/>
       <c r="AZ336" s="44"/>
     </row>
-    <row r="337" ht="18.75" spans="1:52">
+    <row r="337" ht="17.4" spans="1:52">
       <c r="A337" s="112"/>
       <c r="B337" s="137"/>
       <c r="C337" s="18"/>
@@ -25029,7 +25118,7 @@
       <c r="AV337" s="18"/>
       <c r="AZ337" s="44"/>
     </row>
-    <row r="338" ht="18.75" spans="1:52">
+    <row r="338" ht="17.4" spans="1:52">
       <c r="A338" s="112"/>
       <c r="B338" s="137"/>
       <c r="C338" s="18"/>
@@ -25080,7 +25169,7 @@
       <c r="AV338" s="18"/>
       <c r="AZ338" s="44"/>
     </row>
-    <row r="339" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="339" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A339" s="138"/>
       <c r="B339" s="137"/>
       <c r="C339" s="18"/>
@@ -25130,7 +25219,7 @@
       <c r="AV339" s="18"/>
       <c r="AZ339" s="44"/>
     </row>
-    <row r="340" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="340" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A340" s="138"/>
       <c r="B340" s="137"/>
       <c r="C340" s="18"/>
@@ -25180,7 +25269,7 @@
       <c r="AV340" s="18"/>
       <c r="AZ340" s="44"/>
     </row>
-    <row r="341" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="341" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A341" s="138"/>
       <c r="B341" s="137"/>
       <c r="C341" s="18"/>
@@ -25230,7 +25319,7 @@
       <c r="AV341" s="18"/>
       <c r="AZ341" s="44"/>
     </row>
-    <row r="342" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="342" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A342" s="138"/>
       <c r="B342" s="137"/>
       <c r="C342" s="18"/>
@@ -25280,7 +25369,7 @@
       <c r="AV342" s="18"/>
       <c r="AZ342" s="44"/>
     </row>
-    <row r="343" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="343" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A343" s="138"/>
       <c r="B343" s="137"/>
       <c r="C343" s="18"/>
@@ -25330,7 +25419,7 @@
       <c r="AV343" s="18"/>
       <c r="AZ343" s="44"/>
     </row>
-    <row r="344" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="344" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A344" s="138"/>
       <c r="B344" s="137"/>
       <c r="C344" s="18"/>
@@ -25380,7 +25469,7 @@
       <c r="AV344" s="18"/>
       <c r="AZ344" s="44"/>
     </row>
-    <row r="345" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="345" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A345" s="138"/>
       <c r="B345" s="137"/>
       <c r="C345" s="18"/>
@@ -25430,7 +25519,7 @@
       <c r="AV345" s="18"/>
       <c r="AZ345" s="44"/>
     </row>
-    <row r="346" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="346" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A346" s="138"/>
       <c r="B346" s="137"/>
       <c r="C346" s="18"/>
@@ -25480,7 +25569,7 @@
       <c r="AV346" s="18"/>
       <c r="AZ346" s="44"/>
     </row>
-    <row r="347" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="347" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A347" s="138"/>
       <c r="B347" s="137"/>
       <c r="C347" s="18"/>
@@ -25530,7 +25619,7 @@
       <c r="AV347" s="18"/>
       <c r="AZ347" s="44"/>
     </row>
-    <row r="348" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="348" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A348" s="138"/>
       <c r="B348" s="137"/>
       <c r="C348" s="18"/>
@@ -25580,7 +25669,7 @@
       <c r="AV348" s="18"/>
       <c r="AZ348" s="18"/>
     </row>
-    <row r="349" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="349" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A349" s="138"/>
       <c r="B349" s="137"/>
       <c r="C349" s="18"/>
@@ -25630,7 +25719,7 @@
       <c r="AV349" s="18"/>
       <c r="AZ349" s="18"/>
     </row>
-    <row r="350" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="350" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A350" s="138"/>
       <c r="B350" s="137"/>
       <c r="C350" s="18"/>
@@ -25680,7 +25769,7 @@
       <c r="AV350" s="18"/>
       <c r="AZ350" s="44"/>
     </row>
-    <row r="351" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="351" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A351" s="138"/>
       <c r="B351" s="137"/>
       <c r="C351" s="18"/>
@@ -25730,7 +25819,7 @@
       <c r="AV351" s="18"/>
       <c r="AZ351" s="44"/>
     </row>
-    <row r="352" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="352" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A352" s="138"/>
       <c r="B352" s="137"/>
       <c r="C352" s="18"/>
@@ -25780,7 +25869,7 @@
       <c r="AV352" s="18"/>
       <c r="AZ352" s="44"/>
     </row>
-    <row r="353" s="3" customFormat="1" ht="18.75" spans="1:52">
+    <row r="353" s="3" customFormat="1" ht="18" spans="1:52">
       <c r="A353" s="138"/>
       <c r="B353" s="137"/>
       <c r="C353" s="18"/>
@@ -25831,7 +25920,7 @@
       <c r="AV353" s="18"/>
       <c r="AZ353" s="44"/>
     </row>
-    <row r="354" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="354" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A354" s="138"/>
       <c r="B354" s="137"/>
       <c r="C354" s="18"/>
@@ -25882,7 +25971,7 @@
       <c r="AV354" s="18"/>
       <c r="AZ354" s="66"/>
     </row>
-    <row r="355" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="355" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A355" s="138"/>
       <c r="B355" s="137"/>
       <c r="C355" s="18"/>
@@ -25933,7 +26022,7 @@
       <c r="AV355" s="18"/>
       <c r="AZ355" s="44"/>
     </row>
-    <row r="356" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="356" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A356" s="138"/>
       <c r="B356" s="137"/>
       <c r="C356" s="18"/>
@@ -25984,7 +26073,7 @@
       <c r="AV356" s="18"/>
       <c r="AZ356" s="44"/>
     </row>
-    <row r="357" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="357" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A357" s="138"/>
       <c r="B357" s="137"/>
       <c r="C357" s="18"/>
@@ -26035,7 +26124,7 @@
       <c r="AV357" s="18"/>
       <c r="AZ357" s="44"/>
     </row>
-    <row r="358" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="358" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A358" s="138"/>
       <c r="B358" s="137"/>
       <c r="C358" s="18"/>
@@ -26086,7 +26175,7 @@
       <c r="AV358" s="18"/>
       <c r="AZ358" s="44"/>
     </row>
-    <row r="359" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="359" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A359" s="138"/>
       <c r="B359" s="137"/>
       <c r="C359" s="18"/>
@@ -26137,7 +26226,7 @@
       <c r="AV359" s="18"/>
       <c r="AZ359" s="66"/>
     </row>
-    <row r="360" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="360" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A360" s="138"/>
       <c r="B360" s="137"/>
       <c r="C360" s="18"/>
@@ -26188,7 +26277,7 @@
       <c r="AV360" s="18"/>
       <c r="AZ360" s="44"/>
     </row>
-    <row r="361" ht="18.75" spans="1:52">
+    <row r="361" ht="17.4" spans="1:52">
       <c r="A361" s="138"/>
       <c r="B361" s="137"/>
       <c r="C361" s="18"/>
@@ -26238,7 +26327,7 @@
       <c r="AV361" s="18"/>
       <c r="AZ361" s="44"/>
     </row>
-    <row r="362" ht="18.75" spans="1:52">
+    <row r="362" ht="17.4" spans="1:52">
       <c r="A362" s="138"/>
       <c r="B362" s="137"/>
       <c r="C362" s="18"/>
@@ -26288,7 +26377,7 @@
       <c r="AV362" s="18"/>
       <c r="AZ362" s="44"/>
     </row>
-    <row r="363" ht="18.75" spans="1:52">
+    <row r="363" ht="17.4" spans="1:52">
       <c r="A363" s="138"/>
       <c r="B363" s="137"/>
       <c r="C363" s="18"/>
@@ -26338,7 +26427,7 @@
       <c r="AV363" s="18"/>
       <c r="AZ363" s="44"/>
     </row>
-    <row r="364" ht="18.75" spans="1:52">
+    <row r="364" ht="17.4" spans="1:52">
       <c r="A364" s="138"/>
       <c r="B364" s="137"/>
       <c r="C364" s="18"/>
@@ -26388,7 +26477,7 @@
       <c r="AV364" s="18"/>
       <c r="AZ364" s="44"/>
     </row>
-    <row r="365" ht="18.75" spans="1:52">
+    <row r="365" ht="17.4" spans="1:52">
       <c r="A365" s="138"/>
       <c r="B365" s="137"/>
       <c r="C365" s="18"/>
@@ -26438,7 +26527,7 @@
       <c r="AV365" s="18"/>
       <c r="AZ365" s="44"/>
     </row>
-    <row r="366" ht="18.75" spans="1:52">
+    <row r="366" ht="17.4" spans="1:52">
       <c r="A366" s="138"/>
       <c r="B366" s="137"/>
       <c r="C366" s="18"/>
@@ -26488,7 +26577,7 @@
       <c r="AV366" s="18"/>
       <c r="AZ366" s="44"/>
     </row>
-    <row r="367" ht="18.75" spans="1:52">
+    <row r="367" ht="17.4" spans="1:52">
       <c r="A367" s="138"/>
       <c r="B367" s="137"/>
       <c r="C367" s="18"/>
@@ -26538,7 +26627,7 @@
       <c r="AV367" s="18"/>
       <c r="AZ367" s="44"/>
     </row>
-    <row r="368" ht="18.75" spans="1:52">
+    <row r="368" ht="17.4" spans="1:52">
       <c r="A368" s="138"/>
       <c r="B368" s="137"/>
       <c r="C368" s="18"/>
@@ -26588,7 +26677,7 @@
       <c r="AV368" s="18"/>
       <c r="AZ368" s="66"/>
     </row>
-    <row r="369" ht="18.75" spans="1:52">
+    <row r="369" ht="17.4" spans="1:52">
       <c r="A369" s="138"/>
       <c r="B369" s="137"/>
       <c r="C369" s="18"/>
@@ -26638,7 +26727,7 @@
       <c r="AV369" s="18"/>
       <c r="AZ369" s="66"/>
     </row>
-    <row r="370" ht="18.75" spans="1:52">
+    <row r="370" ht="17.4" spans="1:52">
       <c r="A370" s="138"/>
       <c r="B370" s="137"/>
       <c r="C370" s="18"/>
@@ -26688,7 +26777,7 @@
       <c r="AV370" s="18"/>
       <c r="AZ370" s="44"/>
     </row>
-    <row r="371" ht="18.75" spans="1:52">
+    <row r="371" ht="17.4" spans="1:52">
       <c r="A371" s="138"/>
       <c r="B371" s="137"/>
       <c r="C371" s="18"/>
@@ -26738,7 +26827,7 @@
       <c r="AV371" s="18"/>
       <c r="AZ371" s="44"/>
     </row>
-    <row r="372" ht="18.75" spans="1:52">
+    <row r="372" ht="17.4" spans="1:52">
       <c r="A372" s="138"/>
       <c r="B372" s="137"/>
       <c r="C372" s="18"/>
@@ -26788,7 +26877,7 @@
       <c r="AV372" s="18"/>
       <c r="AZ372" s="44"/>
     </row>
-    <row r="373" ht="18.75" spans="1:52">
+    <row r="373" ht="17.4" spans="1:52">
       <c r="A373" s="138"/>
       <c r="B373" s="137"/>
       <c r="C373" s="18"/>
@@ -26838,7 +26927,7 @@
       <c r="AV373" s="18"/>
       <c r="AZ373" s="44"/>
     </row>
-    <row r="374" ht="18.75" spans="1:52">
+    <row r="374" ht="17.4" spans="1:52">
       <c r="A374" s="138"/>
       <c r="B374" s="137"/>
       <c r="C374" s="18"/>
@@ -26888,7 +26977,7 @@
       <c r="AV374" s="18"/>
       <c r="AZ374" s="44"/>
     </row>
-    <row r="375" ht="18.75" spans="1:52">
+    <row r="375" ht="17.4" spans="1:52">
       <c r="A375" s="138"/>
       <c r="B375" s="137"/>
       <c r="C375" s="18"/>
@@ -26938,7 +27027,7 @@
       <c r="AV375" s="18"/>
       <c r="AZ375" s="44"/>
     </row>
-    <row r="376" ht="18.75" spans="1:52">
+    <row r="376" ht="17.4" spans="1:52">
       <c r="A376" s="138"/>
       <c r="B376" s="137"/>
       <c r="C376" s="18"/>
@@ -26988,7 +27077,7 @@
       <c r="AV376" s="18"/>
       <c r="AZ376" s="44"/>
     </row>
-    <row r="377" ht="18.75" spans="1:52">
+    <row r="377" ht="17.4" spans="1:52">
       <c r="A377" s="138"/>
       <c r="B377" s="137"/>
       <c r="C377" s="18"/>
@@ -27038,7 +27127,7 @@
       <c r="AV377" s="18"/>
       <c r="AZ377" s="44"/>
     </row>
-    <row r="378" ht="18.75" spans="1:52">
+    <row r="378" ht="17.4" spans="1:52">
       <c r="A378" s="138"/>
       <c r="B378" s="137"/>
       <c r="C378" s="18"/>
@@ -27088,7 +27177,7 @@
       <c r="AV378" s="18"/>
       <c r="AZ378" s="44"/>
     </row>
-    <row r="379" ht="18.75" spans="1:52">
+    <row r="379" ht="17.4" spans="1:52">
       <c r="A379" s="138"/>
       <c r="B379" s="137"/>
       <c r="C379" s="18"/>
@@ -27138,7 +27227,7 @@
       <c r="AV379" s="18"/>
       <c r="AZ379" s="44"/>
     </row>
-    <row r="380" ht="18.75" spans="1:52">
+    <row r="380" ht="17.4" spans="1:52">
       <c r="A380" s="138"/>
       <c r="B380" s="137"/>
       <c r="C380" s="18"/>
@@ -27188,7 +27277,7 @@
       <c r="AV380" s="18"/>
       <c r="AZ380" s="18"/>
     </row>
-    <row r="381" ht="18.75" spans="1:52">
+    <row r="381" ht="17.4" spans="1:52">
       <c r="A381" s="138"/>
       <c r="B381" s="137"/>
       <c r="C381" s="18"/>
@@ -27238,7 +27327,7 @@
       <c r="AV381" s="18"/>
       <c r="AZ381" s="44"/>
     </row>
-    <row r="382" ht="18.75" spans="1:52">
+    <row r="382" ht="17.4" spans="1:52">
       <c r="A382" s="138"/>
       <c r="B382" s="137"/>
       <c r="C382" s="18"/>
@@ -27288,7 +27377,7 @@
       <c r="AV382" s="18"/>
       <c r="AZ382" s="44"/>
     </row>
-    <row r="383" ht="18.75" spans="1:52">
+    <row r="383" ht="17.4" spans="1:52">
       <c r="A383" s="138"/>
       <c r="B383" s="137"/>
       <c r="C383" s="18"/>
@@ -27338,7 +27427,7 @@
       <c r="AV383" s="18"/>
       <c r="AZ383" s="44"/>
     </row>
-    <row r="384" ht="18.75" spans="1:52">
+    <row r="384" ht="17.4" spans="1:52">
       <c r="A384" s="138"/>
       <c r="B384" s="137"/>
       <c r="C384" s="18"/>
@@ -27388,7 +27477,7 @@
       <c r="AV384" s="18"/>
       <c r="AZ384" s="44"/>
     </row>
-    <row r="385" ht="18.75" spans="1:52">
+    <row r="385" ht="17.4" spans="1:52">
       <c r="A385" s="138"/>
       <c r="B385" s="137"/>
       <c r="C385" s="18"/>
@@ -27438,7 +27527,7 @@
       <c r="AV385" s="18"/>
       <c r="AZ385" s="44"/>
     </row>
-    <row r="386" ht="18.75" spans="1:52">
+    <row r="386" ht="17.4" spans="1:52">
       <c r="A386" s="138"/>
       <c r="B386" s="137"/>
       <c r="C386" s="18"/>
@@ -27488,7 +27577,7 @@
       <c r="AV386" s="18"/>
       <c r="AZ386" s="45"/>
     </row>
-    <row r="387" ht="18.75" spans="1:52">
+    <row r="387" ht="17.4" spans="1:52">
       <c r="A387" s="138"/>
       <c r="B387" s="137"/>
       <c r="C387" s="18"/>
@@ -27588,7 +27677,7 @@
       <c r="AV388" s="18"/>
       <c r="AZ388" s="44"/>
     </row>
-    <row r="389" ht="18.75" spans="1:52">
+    <row r="389" ht="17.4" spans="1:52">
       <c r="A389" s="138"/>
       <c r="B389" s="137"/>
       <c r="C389" s="18"/>
@@ -27638,7 +27727,7 @@
       <c r="AV389" s="18"/>
       <c r="AZ389" s="44"/>
     </row>
-    <row r="390" ht="18.75" spans="1:52">
+    <row r="390" ht="17.4" spans="1:52">
       <c r="A390" s="138"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -27688,7 +27777,7 @@
       <c r="AV390" s="18"/>
       <c r="AZ390" s="44"/>
     </row>
-    <row r="391" ht="18.75" spans="1:52">
+    <row r="391" ht="17.4" spans="1:52">
       <c r="A391" s="138"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -27788,7 +27877,7 @@
       <c r="AV392" s="18"/>
       <c r="AZ392" s="44"/>
     </row>
-    <row r="393" ht="18.75" spans="1:52">
+    <row r="393" ht="17.4" spans="1:52">
       <c r="A393" s="138"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -27838,7 +27927,7 @@
       <c r="AV393" s="18"/>
       <c r="AZ393" s="44"/>
     </row>
-    <row r="394" ht="18.75" spans="1:52">
+    <row r="394" ht="17.4" spans="1:52">
       <c r="A394" s="138"/>
       <c r="B394" s="89"/>
       <c r="C394" s="18"/>
@@ -27888,7 +27977,7 @@
       <c r="AV394" s="18"/>
       <c r="AZ394" s="44"/>
     </row>
-    <row r="395" ht="18.75" spans="1:52">
+    <row r="395" ht="17.4" spans="1:52">
       <c r="A395" s="138"/>
       <c r="B395" s="89"/>
       <c r="C395" s="18"/>
@@ -27938,7 +28027,7 @@
       <c r="AV395" s="18"/>
       <c r="AZ395" s="44"/>
     </row>
-    <row r="396" ht="18.75" spans="1:52">
+    <row r="396" ht="17.4" spans="1:52">
       <c r="A396" s="138"/>
       <c r="B396" s="89"/>
       <c r="C396" s="18"/>
@@ -27988,7 +28077,7 @@
       <c r="AV396" s="18"/>
       <c r="AZ396" s="44"/>
     </row>
-    <row r="397" ht="18.75" spans="1:52">
+    <row r="397" ht="17.4" spans="1:52">
       <c r="A397" s="138"/>
       <c r="B397" s="89"/>
       <c r="C397" s="18"/>
@@ -28038,7 +28127,7 @@
       <c r="AV397" s="18"/>
       <c r="AZ397" s="44"/>
     </row>
-    <row r="398" ht="18.75" spans="1:52">
+    <row r="398" ht="17.4" spans="1:52">
       <c r="A398" s="138"/>
       <c r="B398" s="89"/>
       <c r="C398" s="18"/>
@@ -28088,7 +28177,7 @@
       <c r="AV398" s="82"/>
       <c r="AZ398" s="44"/>
     </row>
-    <row r="399" ht="18.75" spans="1:52">
+    <row r="399" ht="17.4" spans="1:52">
       <c r="A399" s="138"/>
       <c r="B399" s="89"/>
       <c r="C399" s="18"/>
@@ -28138,7 +28227,7 @@
       <c r="AV399" s="18"/>
       <c r="AZ399" s="44"/>
     </row>
-    <row r="400" ht="18.75" spans="1:52">
+    <row r="400" ht="17.4" spans="1:52">
       <c r="A400" s="138"/>
       <c r="B400" s="89"/>
       <c r="C400" s="18"/>
@@ -28188,7 +28277,7 @@
       <c r="AV400" s="18"/>
       <c r="AZ400" s="44"/>
     </row>
-    <row r="401" ht="18.75" spans="1:52">
+    <row r="401" ht="17.4" spans="1:52">
       <c r="A401" s="138"/>
       <c r="B401" s="89"/>
       <c r="C401" s="18"/>
@@ -28238,7 +28327,7 @@
       <c r="AV401" s="18"/>
       <c r="AZ401" s="44"/>
     </row>
-    <row r="402" ht="18.75" spans="1:52">
+    <row r="402" ht="17.4" spans="1:52">
       <c r="A402" s="138"/>
       <c r="B402" s="89"/>
       <c r="C402" s="18"/>
@@ -28288,7 +28377,7 @@
       <c r="AV402" s="18"/>
       <c r="AZ402" s="44"/>
     </row>
-    <row r="403" ht="18.75" spans="1:52">
+    <row r="403" ht="17.4" spans="1:52">
       <c r="A403" s="138"/>
       <c r="B403" s="89"/>
       <c r="C403" s="18"/>
@@ -28338,7 +28427,7 @@
       <c r="AV403" s="18"/>
       <c r="AZ403" s="44"/>
     </row>
-    <row r="404" ht="18.75" spans="1:52">
+    <row r="404" ht="17.4" spans="1:52">
       <c r="A404" s="138"/>
       <c r="B404" s="89"/>
       <c r="C404" s="18"/>
@@ -28388,7 +28477,7 @@
       <c r="AV404" s="82"/>
       <c r="AZ404" s="44"/>
     </row>
-    <row r="405" ht="18.75" spans="1:52">
+    <row r="405" ht="17.4" spans="1:52">
       <c r="A405" s="138"/>
       <c r="B405" s="89"/>
       <c r="C405" s="18"/>
@@ -28438,7 +28527,7 @@
       <c r="AV405" s="18"/>
       <c r="AZ405" s="66"/>
     </row>
-    <row r="406" ht="18.75" spans="1:52">
+    <row r="406" ht="17.4" spans="1:52">
       <c r="A406" s="138"/>
       <c r="B406" s="89"/>
       <c r="C406" s="18"/>
@@ -28488,7 +28577,7 @@
       <c r="AV406" s="18"/>
       <c r="AZ406" s="44"/>
     </row>
-    <row r="407" ht="18.75" spans="1:52">
+    <row r="407" ht="17.4" spans="1:52">
       <c r="A407" s="138"/>
       <c r="B407" s="89"/>
       <c r="C407" s="18"/>
@@ -28538,7 +28627,7 @@
       <c r="AV407" s="18"/>
       <c r="AZ407" s="44"/>
     </row>
-    <row r="408" ht="18.75" spans="1:52">
+    <row r="408" ht="17.4" spans="1:52">
       <c r="A408" s="138"/>
       <c r="B408" s="89"/>
       <c r="C408" s="18"/>
@@ -28588,7 +28677,7 @@
       <c r="AV408" s="18"/>
       <c r="AZ408" s="44"/>
     </row>
-    <row r="409" ht="18.75" spans="1:52">
+    <row r="409" ht="17.4" spans="1:52">
       <c r="A409" s="138"/>
       <c r="B409" s="89"/>
       <c r="C409" s="18"/>
@@ -28638,7 +28727,7 @@
       <c r="AV409" s="18"/>
       <c r="AZ409" s="44"/>
     </row>
-    <row r="410" ht="18.75" spans="1:52">
+    <row r="410" ht="17.4" spans="1:52">
       <c r="A410" s="138"/>
       <c r="B410" s="89"/>
       <c r="C410" s="18"/>
@@ -28688,7 +28777,7 @@
       <c r="AV410" s="18"/>
       <c r="AZ410" s="44"/>
     </row>
-    <row r="411" ht="18.75" spans="1:52">
+    <row r="411" ht="17.4" spans="1:52">
       <c r="A411" s="138"/>
       <c r="B411" s="89"/>
       <c r="C411" s="18"/>
@@ -28738,7 +28827,7 @@
       <c r="AV411" s="18"/>
       <c r="AZ411" s="44"/>
     </row>
-    <row r="412" ht="18.75" spans="1:52">
+    <row r="412" ht="17.4" spans="1:52">
       <c r="A412" s="138"/>
       <c r="B412" s="89"/>
       <c r="C412" s="18"/>
@@ -28788,7 +28877,7 @@
       <c r="AV412" s="18"/>
       <c r="AZ412" s="44"/>
     </row>
-    <row r="413" ht="18.75" spans="1:52">
+    <row r="413" ht="17.4" spans="1:52">
       <c r="A413" s="138"/>
       <c r="B413" s="89"/>
       <c r="C413" s="18"/>
@@ -28838,7 +28927,7 @@
       <c r="AV413" s="18"/>
       <c r="AZ413" s="18"/>
     </row>
-    <row r="414" ht="18.75" spans="1:52">
+    <row r="414" ht="17.4" spans="1:52">
       <c r="A414" s="138"/>
       <c r="B414" s="89"/>
       <c r="C414" s="18"/>
@@ -28888,7 +28977,7 @@
       <c r="AV414" s="18"/>
       <c r="AZ414" s="18"/>
     </row>
-    <row r="415" ht="18.75" spans="1:52">
+    <row r="415" ht="17.4" spans="1:52">
       <c r="A415" s="138"/>
       <c r="B415" s="89"/>
       <c r="C415" s="18"/>
@@ -28938,7 +29027,7 @@
       <c r="AV415" s="18"/>
       <c r="AZ415" s="44"/>
     </row>
-    <row r="416" ht="18.75" spans="1:52">
+    <row r="416" ht="17.4" spans="1:52">
       <c r="A416" s="138"/>
       <c r="B416" s="89"/>
       <c r="C416" s="18"/>
@@ -28988,7 +29077,7 @@
       <c r="AV416" s="18"/>
       <c r="AZ416" s="44"/>
     </row>
-    <row r="417" ht="18.75" spans="1:52">
+    <row r="417" ht="17.4" spans="1:52">
       <c r="A417" s="138"/>
       <c r="B417" s="89"/>
       <c r="C417" s="18"/>
@@ -29038,7 +29127,7 @@
       <c r="AV417" s="18"/>
       <c r="AZ417" s="44"/>
     </row>
-    <row r="418" ht="18.75" spans="1:52">
+    <row r="418" ht="17.4" spans="1:52">
       <c r="A418" s="138"/>
       <c r="B418" s="89"/>
       <c r="C418" s="18"/>
@@ -29088,7 +29177,7 @@
       <c r="AV418" s="18"/>
       <c r="AZ418" s="18"/>
     </row>
-    <row r="419" ht="18.75" spans="1:52">
+    <row r="419" ht="17.4" spans="1:52">
       <c r="A419" s="138"/>
       <c r="B419" s="89"/>
       <c r="C419" s="18"/>
@@ -29138,7 +29227,7 @@
       <c r="AV419" s="18"/>
       <c r="AZ419" s="18"/>
     </row>
-    <row r="420" ht="18.75" spans="1:52">
+    <row r="420" ht="17.4" spans="1:52">
       <c r="A420" s="138"/>
       <c r="B420" s="89"/>
       <c r="C420" s="18"/>
@@ -29188,7 +29277,7 @@
       <c r="AV420" s="18"/>
       <c r="AZ420" s="18"/>
     </row>
-    <row r="421" ht="18.75" spans="1:52">
+    <row r="421" ht="17.4" spans="1:52">
       <c r="A421" s="138"/>
       <c r="B421" s="89"/>
       <c r="C421" s="18"/>
@@ -29238,7 +29327,7 @@
       <c r="AV421" s="18"/>
       <c r="AZ421" s="18"/>
     </row>
-    <row r="422" ht="18.75" spans="1:52">
+    <row r="422" ht="17.4" spans="1:52">
       <c r="A422" s="138"/>
       <c r="B422" s="89"/>
       <c r="C422" s="18"/>
@@ -29288,7 +29377,7 @@
       <c r="AV422" s="18"/>
       <c r="AZ422" s="18"/>
     </row>
-    <row r="423" ht="18.75" spans="1:52">
+    <row r="423" ht="17.4" spans="1:52">
       <c r="A423" s="138"/>
       <c r="B423" s="89"/>
       <c r="C423" s="18"/>
@@ -29338,7 +29427,7 @@
       <c r="AV423" s="18"/>
       <c r="AZ423" s="18"/>
     </row>
-    <row r="424" ht="18.75" spans="1:52">
+    <row r="424" ht="17.4" spans="1:52">
       <c r="A424" s="138"/>
       <c r="B424" s="89"/>
       <c r="C424" s="18"/>
@@ -29388,7 +29477,7 @@
       <c r="AV424" s="18"/>
       <c r="AZ424" s="44"/>
     </row>
-    <row r="425" ht="18.75" spans="1:52">
+    <row r="425" ht="17.4" spans="1:52">
       <c r="A425" s="138"/>
       <c r="B425" s="89"/>
       <c r="C425" s="18"/>
@@ -29438,7 +29527,7 @@
       <c r="AV425" s="18"/>
       <c r="AZ425" s="44"/>
     </row>
-    <row r="426" ht="18.75" spans="1:52">
+    <row r="426" ht="17.4" spans="1:52">
       <c r="A426" s="138"/>
       <c r="B426" s="89"/>
       <c r="C426" s="18"/>
@@ -29488,7 +29577,7 @@
       <c r="AV426" s="18"/>
       <c r="AZ426" s="44"/>
     </row>
-    <row r="427" ht="18.75" spans="1:52">
+    <row r="427" ht="17.4" spans="1:52">
       <c r="A427" s="138"/>
       <c r="B427" s="89"/>
       <c r="C427" s="18"/>
@@ -29538,7 +29627,7 @@
       <c r="AV427" s="18"/>
       <c r="AZ427" s="44"/>
     </row>
-    <row r="428" ht="18.75" spans="1:52">
+    <row r="428" ht="17.4" spans="1:52">
       <c r="A428" s="138"/>
       <c r="B428" s="89"/>
       <c r="C428" s="18"/>
@@ -29588,7 +29677,7 @@
       <c r="AV428" s="18"/>
       <c r="AZ428" s="44"/>
     </row>
-    <row r="429" ht="18.75" spans="1:52">
+    <row r="429" ht="17.4" spans="1:52">
       <c r="A429" s="138"/>
       <c r="B429" s="89"/>
       <c r="C429" s="18"/>
@@ -29638,7 +29727,7 @@
       <c r="AV429" s="18"/>
       <c r="AZ429" s="44"/>
     </row>
-    <row r="430" ht="18.75" spans="1:52">
+    <row r="430" ht="17.4" spans="1:52">
       <c r="A430" s="138"/>
       <c r="B430" s="89"/>
       <c r="C430" s="18"/>
@@ -29688,7 +29777,7 @@
       <c r="AV430" s="18"/>
       <c r="AZ430" s="44"/>
     </row>
-    <row r="431" ht="18.75" spans="1:52">
+    <row r="431" ht="17.4" spans="1:52">
       <c r="A431" s="138"/>
       <c r="B431" s="89"/>
       <c r="C431" s="18"/>
@@ -29738,7 +29827,7 @@
       <c r="AV431" s="18"/>
       <c r="AZ431" s="44"/>
     </row>
-    <row r="432" ht="18.75" spans="1:52">
+    <row r="432" ht="17.4" spans="1:52">
       <c r="A432" s="138"/>
       <c r="B432" s="89"/>
       <c r="C432" s="18"/>
@@ -29788,7 +29877,7 @@
       <c r="AV432" s="18"/>
       <c r="AZ432" s="44"/>
     </row>
-    <row r="433" ht="18.75" spans="1:52">
+    <row r="433" ht="17.4" spans="1:52">
       <c r="A433" s="138"/>
       <c r="B433" s="89"/>
       <c r="C433" s="18"/>
@@ -29838,7 +29927,7 @@
       <c r="AV433" s="18"/>
       <c r="AZ433" s="44"/>
     </row>
-    <row r="434" ht="18.75" spans="1:52">
+    <row r="434" ht="17.4" spans="1:52">
       <c r="A434" s="138"/>
       <c r="B434" s="89"/>
       <c r="C434" s="18"/>
@@ -29888,7 +29977,7 @@
       <c r="AV434" s="18"/>
       <c r="AZ434" s="44"/>
     </row>
-    <row r="435" ht="18.75" spans="1:52">
+    <row r="435" ht="17.4" spans="1:52">
       <c r="A435" s="138"/>
       <c r="B435" s="89"/>
       <c r="C435" s="18"/>
@@ -29938,7 +30027,7 @@
       <c r="AV435" s="18"/>
       <c r="AZ435" s="44"/>
     </row>
-    <row r="436" ht="18.75" spans="1:52">
+    <row r="436" ht="17.4" spans="1:52">
       <c r="A436" s="138"/>
       <c r="B436" s="89"/>
       <c r="C436" s="18"/>
@@ -29988,7 +30077,7 @@
       <c r="AV436" s="18"/>
       <c r="AZ436" s="44"/>
     </row>
-    <row r="437" ht="18.75" spans="1:52">
+    <row r="437" ht="17.4" spans="1:52">
       <c r="A437" s="138"/>
       <c r="B437" s="89"/>
       <c r="C437" s="18"/>
@@ -30038,7 +30127,7 @@
       <c r="AV437" s="18"/>
       <c r="AZ437" s="44"/>
     </row>
-    <row r="438" ht="18.75" spans="1:52">
+    <row r="438" ht="17.4" spans="1:52">
       <c r="A438" s="138"/>
       <c r="B438" s="89"/>
       <c r="C438" s="18"/>
@@ -30088,7 +30177,7 @@
       <c r="AV438" s="18"/>
       <c r="AZ438" s="44"/>
     </row>
-    <row r="439" ht="18.75" spans="1:52">
+    <row r="439" ht="17.4" spans="1:52">
       <c r="A439" s="138"/>
       <c r="B439" s="89"/>
       <c r="C439" s="18"/>
@@ -30138,7 +30227,7 @@
       <c r="AV439" s="18"/>
       <c r="AZ439" s="44"/>
     </row>
-    <row r="440" ht="18.75" spans="1:52">
+    <row r="440" ht="17.4" spans="1:52">
       <c r="A440" s="138"/>
       <c r="B440" s="89"/>
       <c r="C440" s="18"/>
@@ -30188,7 +30277,7 @@
       <c r="AV440" s="18"/>
       <c r="AZ440" s="44"/>
     </row>
-    <row r="441" ht="18.75" spans="1:52">
+    <row r="441" ht="17.4" spans="1:52">
       <c r="A441" s="138"/>
       <c r="B441" s="89"/>
       <c r="C441" s="18"/>
@@ -30238,7 +30327,7 @@
       <c r="AV441" s="18"/>
       <c r="AZ441" s="44"/>
     </row>
-    <row r="442" ht="18.75" spans="1:52">
+    <row r="442" ht="17.4" spans="1:52">
       <c r="A442" s="138"/>
       <c r="B442" s="89"/>
       <c r="C442" s="18"/>
@@ -30288,7 +30377,7 @@
       <c r="AV442" s="18"/>
       <c r="AZ442" s="44"/>
     </row>
-    <row r="443" ht="18.75" spans="1:52">
+    <row r="443" ht="17.4" spans="1:52">
       <c r="A443" s="138"/>
       <c r="B443" s="89"/>
       <c r="C443" s="18"/>
@@ -30338,7 +30427,7 @@
       <c r="AV443" s="18"/>
       <c r="AZ443" s="18"/>
     </row>
-    <row r="444" ht="18.75" spans="1:52">
+    <row r="444" ht="17.4" spans="1:52">
       <c r="A444" s="138"/>
       <c r="B444" s="89"/>
       <c r="C444" s="18"/>
@@ -30388,7 +30477,7 @@
       <c r="AV444" s="18"/>
       <c r="AZ444" s="18"/>
     </row>
-    <row r="445" ht="18.75" spans="1:52">
+    <row r="445" ht="17.4" spans="1:52">
       <c r="A445" s="138"/>
       <c r="B445" s="89"/>
       <c r="C445" s="18"/>
@@ -30438,7 +30527,7 @@
       <c r="AV445" s="18"/>
       <c r="AZ445" s="44"/>
     </row>
-    <row r="446" ht="18.75" spans="1:52">
+    <row r="446" ht="17.4" spans="1:52">
       <c r="A446" s="138"/>
       <c r="B446" s="89"/>
       <c r="C446" s="18"/>
@@ -30488,7 +30577,7 @@
       <c r="AV446" s="18"/>
       <c r="AZ446" s="44"/>
     </row>
-    <row r="447" ht="18.75" spans="1:52">
+    <row r="447" ht="17.4" spans="1:52">
       <c r="A447" s="138"/>
       <c r="B447" s="89"/>
       <c r="C447" s="18"/>
@@ -30538,7 +30627,7 @@
       <c r="AV447" s="18"/>
       <c r="AZ447" s="44"/>
     </row>
-    <row r="448" ht="18.75" spans="1:52">
+    <row r="448" ht="17.4" spans="1:52">
       <c r="A448" s="138"/>
       <c r="B448" s="89"/>
       <c r="C448" s="18"/>
@@ -30588,7 +30677,7 @@
       <c r="AV448" s="18"/>
       <c r="AZ448" s="44"/>
     </row>
-    <row r="449" ht="18.75" spans="1:52">
+    <row r="449" ht="17.4" spans="1:52">
       <c r="A449" s="138"/>
       <c r="B449" s="89"/>
       <c r="C449" s="18"/>
@@ -30638,7 +30727,7 @@
       <c r="AV449" s="18"/>
       <c r="AZ449" s="44"/>
     </row>
-    <row r="450" ht="18.75" spans="1:52">
+    <row r="450" ht="17.4" spans="1:52">
       <c r="A450" s="138"/>
       <c r="B450" s="89"/>
       <c r="C450" s="18"/>
@@ -30688,7 +30777,7 @@
       <c r="AV450" s="18"/>
       <c r="AZ450" s="44"/>
     </row>
-    <row r="451" ht="18.75" spans="1:52">
+    <row r="451" ht="17.4" spans="1:52">
       <c r="A451" s="138"/>
       <c r="B451" s="89"/>
       <c r="C451" s="18"/>
@@ -30738,7 +30827,7 @@
       <c r="AV451" s="18"/>
       <c r="AZ451" s="44"/>
     </row>
-    <row r="452" ht="18.75" spans="1:52">
+    <row r="452" ht="17.4" spans="1:52">
       <c r="A452" s="138"/>
       <c r="B452" s="89"/>
       <c r="C452" s="18"/>
@@ -30788,7 +30877,7 @@
       <c r="AV452" s="18"/>
       <c r="AZ452" s="44"/>
     </row>
-    <row r="453" ht="18.75" spans="1:52">
+    <row r="453" ht="17.4" spans="1:52">
       <c r="A453" s="138"/>
       <c r="B453" s="89"/>
       <c r="C453" s="18"/>
@@ -30838,7 +30927,7 @@
       <c r="AV453" s="18"/>
       <c r="AZ453" s="44"/>
     </row>
-    <row r="454" ht="18.75" spans="1:52">
+    <row r="454" ht="17.4" spans="1:52">
       <c r="A454" s="138"/>
       <c r="B454" s="89"/>
       <c r="C454" s="18"/>
@@ -30888,7 +30977,7 @@
       <c r="AV454" s="18"/>
       <c r="AZ454" s="44"/>
     </row>
-    <row r="455" ht="18.75" spans="1:52">
+    <row r="455" ht="17.4" spans="1:52">
       <c r="A455" s="138"/>
       <c r="B455" s="89"/>
       <c r="C455" s="18"/>
@@ -30938,7 +31027,7 @@
       <c r="AV455" s="18"/>
       <c r="AZ455" s="44"/>
     </row>
-    <row r="456" ht="18.75" spans="1:52">
+    <row r="456" ht="17.4" spans="1:52">
       <c r="A456" s="138"/>
       <c r="B456" s="89"/>
       <c r="C456" s="18"/>
@@ -30988,7 +31077,7 @@
       <c r="AV456" s="82"/>
       <c r="AZ456" s="44"/>
     </row>
-    <row r="457" ht="18.75" spans="1:52">
+    <row r="457" ht="17.4" spans="1:52">
       <c r="A457" s="138"/>
       <c r="B457" s="89"/>
       <c r="C457" s="18"/>
@@ -31038,7 +31127,7 @@
       <c r="AV457" s="18"/>
       <c r="AZ457" s="44"/>
     </row>
-    <row r="458" ht="18.75" spans="1:52">
+    <row r="458" ht="17.4" spans="1:52">
       <c r="A458" s="138"/>
       <c r="B458" s="89"/>
       <c r="C458" s="18"/>
@@ -31088,7 +31177,7 @@
       <c r="AV458" s="18"/>
       <c r="AZ458" s="44"/>
     </row>
-    <row r="459" ht="18.75" spans="1:52">
+    <row r="459" ht="17.4" spans="1:52">
       <c r="A459" s="138"/>
       <c r="B459" s="89"/>
       <c r="C459" s="18"/>
@@ -31138,7 +31227,7 @@
       <c r="AV459" s="18"/>
       <c r="AZ459" s="44"/>
     </row>
-    <row r="460" ht="18.75" spans="1:52">
+    <row r="460" ht="17.4" spans="1:52">
       <c r="A460" s="138"/>
       <c r="B460" s="89"/>
       <c r="C460" s="18"/>
@@ -31188,7 +31277,7 @@
       <c r="AV460" s="18"/>
       <c r="AZ460" s="44"/>
     </row>
-    <row r="461" ht="18.75" spans="1:52">
+    <row r="461" ht="17.4" spans="1:52">
       <c r="A461" s="138"/>
       <c r="B461" s="89"/>
       <c r="C461" s="18"/>
@@ -31238,7 +31327,7 @@
       <c r="AV461" s="18"/>
       <c r="AZ461" s="44"/>
     </row>
-    <row r="462" ht="18.75" spans="1:52">
+    <row r="462" ht="17.4" spans="1:52">
       <c r="A462" s="138"/>
       <c r="B462" s="89"/>
       <c r="C462" s="18"/>
@@ -31288,7 +31377,7 @@
       <c r="AV462" s="18"/>
       <c r="AZ462" s="44"/>
     </row>
-    <row r="463" ht="18.75" spans="1:52">
+    <row r="463" ht="17.4" spans="1:52">
       <c r="A463" s="138"/>
       <c r="B463" s="89"/>
       <c r="C463" s="18"/>
@@ -31338,7 +31427,7 @@
       <c r="AV463" s="18"/>
       <c r="AZ463" s="44"/>
     </row>
-    <row r="464" ht="18.75" spans="1:52">
+    <row r="464" ht="17.4" spans="1:52">
       <c r="A464" s="138"/>
       <c r="B464" s="89"/>
       <c r="C464" s="18"/>
@@ -31388,7 +31477,7 @@
       <c r="AV464" s="18"/>
       <c r="AZ464" s="44"/>
     </row>
-    <row r="465" ht="18.75" spans="1:52">
+    <row r="465" ht="17.4" spans="1:52">
       <c r="A465" s="138"/>
       <c r="B465" s="89"/>
       <c r="C465" s="18"/>
@@ -31438,7 +31527,7 @@
       <c r="AV465" s="18"/>
       <c r="AZ465" s="44"/>
     </row>
-    <row r="466" ht="18.75" spans="1:52">
+    <row r="466" ht="17.4" spans="1:52">
       <c r="A466" s="138"/>
       <c r="B466" s="89"/>
       <c r="C466" s="18"/>
@@ -31488,7 +31577,7 @@
       <c r="AV466" s="18"/>
       <c r="AZ466" s="18"/>
     </row>
-    <row r="467" ht="18.75" spans="1:52">
+    <row r="467" ht="17.4" spans="1:52">
       <c r="A467" s="138"/>
       <c r="B467" s="89"/>
       <c r="C467" s="18"/>
@@ -31538,7 +31627,7 @@
       <c r="AV467" s="18"/>
       <c r="AZ467" s="44"/>
     </row>
-    <row r="468" ht="18.75" spans="1:52">
+    <row r="468" ht="17.4" spans="1:52">
       <c r="A468" s="138"/>
       <c r="B468" s="89"/>
       <c r="C468" s="18"/>
@@ -31588,7 +31677,7 @@
       <c r="AV468" s="18"/>
       <c r="AZ468" s="18"/>
     </row>
-    <row r="469" ht="18.75" spans="1:52">
+    <row r="469" ht="17.4" spans="1:52">
       <c r="A469" s="138"/>
       <c r="B469" s="89"/>
       <c r="C469" s="18"/>
@@ -31638,7 +31727,7 @@
       <c r="AV469" s="18"/>
       <c r="AZ469" s="44"/>
     </row>
-    <row r="470" ht="18.75" spans="1:52">
+    <row r="470" ht="17.4" spans="1:52">
       <c r="A470" s="138"/>
       <c r="B470" s="89"/>
       <c r="C470" s="18"/>
@@ -31688,7 +31777,7 @@
       <c r="AV470" s="18"/>
       <c r="AZ470" s="44"/>
     </row>
-    <row r="471" ht="18.75" spans="1:52">
+    <row r="471" ht="17.4" spans="1:52">
       <c r="A471" s="138"/>
       <c r="B471" s="89"/>
       <c r="C471" s="157"/>
@@ -31738,7 +31827,7 @@
       <c r="AV471" s="166"/>
       <c r="AZ471" s="66"/>
     </row>
-    <row r="472" ht="18.75" spans="1:52">
+    <row r="472" ht="17.4" spans="1:52">
       <c r="A472" s="138"/>
       <c r="B472" s="89"/>
       <c r="C472" s="38"/>
@@ -31788,7 +31877,7 @@
       <c r="AV472" s="18"/>
       <c r="AZ472" s="44"/>
     </row>
-    <row r="473" ht="18.75" spans="1:52">
+    <row r="473" ht="17.4" spans="1:52">
       <c r="A473" s="138"/>
       <c r="B473" s="89"/>
       <c r="C473" s="38"/>
@@ -31838,7 +31927,7 @@
       <c r="AV473" s="18"/>
       <c r="AZ473" s="44"/>
     </row>
-    <row r="474" ht="18.75" spans="1:52">
+    <row r="474" ht="17.4" spans="1:52">
       <c r="A474" s="138"/>
       <c r="B474" s="89"/>
       <c r="C474" s="38"/>
@@ -31888,7 +31977,7 @@
       <c r="AV474" s="18"/>
       <c r="AZ474" s="44"/>
     </row>
-    <row r="475" ht="18.75" spans="1:52">
+    <row r="475" ht="17.4" spans="1:52">
       <c r="A475" s="138"/>
       <c r="B475" s="89"/>
       <c r="C475" s="38"/>
@@ -31938,7 +32027,7 @@
       <c r="AV475" s="18"/>
       <c r="AZ475" s="44"/>
     </row>
-    <row r="476" ht="18.75" spans="1:52">
+    <row r="476" ht="17.4" spans="1:52">
       <c r="A476" s="138"/>
       <c r="B476" s="89"/>
       <c r="C476" s="38"/>
@@ -31988,7 +32077,7 @@
       <c r="AV476" s="18"/>
       <c r="AZ476" s="44"/>
     </row>
-    <row r="477" ht="18.75" spans="1:52">
+    <row r="477" ht="17.4" spans="1:52">
       <c r="A477" s="138"/>
       <c r="B477" s="89"/>
       <c r="C477" s="38"/>
@@ -32038,7 +32127,7 @@
       <c r="AV477" s="18"/>
       <c r="AZ477" s="44"/>
     </row>
-    <row r="478" ht="18.75" spans="1:52">
+    <row r="478" ht="17.4" spans="1:52">
       <c r="A478" s="138"/>
       <c r="B478" s="89"/>
       <c r="C478" s="38"/>
@@ -32088,7 +32177,7 @@
       <c r="AV478" s="18"/>
       <c r="AZ478" s="44"/>
     </row>
-    <row r="479" ht="18.75" spans="1:52">
+    <row r="479" ht="17.4" spans="1:52">
       <c r="A479" s="138"/>
       <c r="B479" s="89"/>
       <c r="C479" s="38"/>
@@ -32138,7 +32227,7 @@
       <c r="AV479" s="18"/>
       <c r="AZ479" s="44"/>
     </row>
-    <row r="480" ht="18.75" spans="1:52">
+    <row r="480" ht="17.4" spans="1:52">
       <c r="A480" s="138"/>
       <c r="B480" s="89"/>
       <c r="C480" s="38"/>
@@ -32188,7 +32277,7 @@
       <c r="AV480" s="18"/>
       <c r="AZ480" s="44"/>
     </row>
-    <row r="481" ht="18.75" spans="1:52">
+    <row r="481" ht="17.4" spans="1:52">
       <c r="A481" s="138"/>
       <c r="B481" s="89"/>
       <c r="C481" s="38"/>
@@ -32238,7 +32327,7 @@
       <c r="AV481" s="18"/>
       <c r="AZ481" s="44"/>
     </row>
-    <row r="482" ht="18.75" spans="1:52">
+    <row r="482" ht="17.4" spans="1:52">
       <c r="A482" s="138"/>
       <c r="B482" s="89"/>
       <c r="C482" s="38"/>
@@ -32288,7 +32377,7 @@
       <c r="AV482" s="18"/>
       <c r="AZ482" s="44"/>
     </row>
-    <row r="483" ht="18.75" spans="1:52">
+    <row r="483" ht="17.4" spans="1:52">
       <c r="A483" s="138"/>
       <c r="B483" s="89"/>
       <c r="C483" s="38"/>
@@ -32338,7 +32427,7 @@
       <c r="AV483" s="18"/>
       <c r="AZ483" s="44"/>
     </row>
-    <row r="484" ht="18.75" spans="1:52">
+    <row r="484" ht="17.4" spans="1:52">
       <c r="A484" s="138"/>
       <c r="B484" s="89"/>
       <c r="C484" s="38"/>
@@ -32388,7 +32477,7 @@
       <c r="AV484" s="18"/>
       <c r="AZ484" s="44"/>
     </row>
-    <row r="485" ht="18.75" spans="1:52">
+    <row r="485" ht="17.4" spans="1:52">
       <c r="A485" s="138"/>
       <c r="B485" s="89"/>
       <c r="C485" s="38"/>
@@ -32438,7 +32527,7 @@
       <c r="AV485" s="18"/>
       <c r="AZ485" s="44"/>
     </row>
-    <row r="486" ht="18.75" spans="1:52">
+    <row r="486" ht="17.4" spans="1:52">
       <c r="A486" s="138"/>
       <c r="B486" s="89"/>
       <c r="C486" s="38"/>
@@ -32473,7 +32562,7 @@
       <c r="AV486" s="82"/>
       <c r="AZ486" s="44"/>
     </row>
-    <row r="487" ht="18.75" spans="1:52">
+    <row r="487" ht="17.4" spans="1:52">
       <c r="A487" s="138"/>
       <c r="B487" s="89"/>
       <c r="C487" s="38"/>
@@ -32508,7 +32597,7 @@
       <c r="AV487" s="18"/>
       <c r="AZ487" s="44"/>
     </row>
-    <row r="488" ht="18.75" spans="1:52">
+    <row r="488" ht="17.4" spans="1:52">
       <c r="A488" s="138"/>
       <c r="B488" s="89"/>
       <c r="C488" s="38"/>
@@ -32543,7 +32632,7 @@
       <c r="AV488" s="18"/>
       <c r="AZ488" s="44"/>
     </row>
-    <row r="489" ht="18.75" spans="1:52">
+    <row r="489" ht="17.4" spans="1:52">
       <c r="A489" s="138"/>
       <c r="B489" s="89"/>
       <c r="C489" s="38"/>
@@ -32578,7 +32667,7 @@
       <c r="AV489" s="18"/>
       <c r="AZ489" s="44"/>
     </row>
-    <row r="490" ht="18.75" spans="1:52">
+    <row r="490" ht="17.4" spans="1:52">
       <c r="A490" s="138"/>
       <c r="B490" s="89"/>
       <c r="C490" s="38"/>
@@ -32613,7 +32702,7 @@
       <c r="AV490" s="18"/>
       <c r="AZ490" s="44"/>
     </row>
-    <row r="491" ht="18.75" spans="1:52">
+    <row r="491" ht="17.4" spans="1:52">
       <c r="A491" s="138"/>
       <c r="B491" s="89"/>
       <c r="C491" s="38"/>
@@ -32648,7 +32737,7 @@
       <c r="AV491" s="18"/>
       <c r="AZ491" s="44"/>
     </row>
-    <row r="492" ht="18.75" spans="1:52">
+    <row r="492" ht="17.4" spans="1:52">
       <c r="A492" s="138"/>
       <c r="B492" s="89"/>
       <c r="C492" s="38"/>
@@ -32683,7 +32772,7 @@
       <c r="AV492" s="18"/>
       <c r="AZ492" s="44"/>
     </row>
-    <row r="493" ht="18.75" spans="1:52">
+    <row r="493" ht="17.4" spans="1:52">
       <c r="A493" s="138"/>
       <c r="B493" s="89"/>
       <c r="C493" s="38"/>
@@ -32718,7 +32807,7 @@
       <c r="AV493" s="18"/>
       <c r="AZ493" s="44"/>
     </row>
-    <row r="494" ht="18.75" spans="1:52">
+    <row r="494" ht="17.4" spans="1:52">
       <c r="A494" s="138"/>
       <c r="B494" s="89"/>
       <c r="C494" s="38"/>
@@ -32753,7 +32842,7 @@
       <c r="AV494" s="18"/>
       <c r="AZ494" s="44"/>
     </row>
-    <row r="495" ht="18.75" spans="1:52">
+    <row r="495" ht="17.4" spans="1:52">
       <c r="A495" s="138"/>
       <c r="B495" s="89"/>
       <c r="C495" s="38"/>
@@ -32788,7 +32877,7 @@
       <c r="AV495" s="82"/>
       <c r="AZ495" s="44"/>
     </row>
-    <row r="496" ht="18.75" spans="1:52">
+    <row r="496" ht="17.4" spans="1:52">
       <c r="A496" s="138"/>
       <c r="B496" s="89"/>
       <c r="C496" s="38"/>
@@ -32823,7 +32912,7 @@
       <c r="AV496" s="18"/>
       <c r="AZ496" s="44"/>
     </row>
-    <row r="497" ht="18.75" spans="1:52">
+    <row r="497" ht="17.4" spans="1:52">
       <c r="A497" s="138"/>
       <c r="B497" s="89"/>
       <c r="C497" s="38"/>
@@ -32858,7 +32947,7 @@
       <c r="AV497" s="18"/>
       <c r="AZ497" s="44"/>
     </row>
-    <row r="498" ht="18.75" spans="1:52">
+    <row r="498" ht="17.4" spans="1:52">
       <c r="A498" s="138"/>
       <c r="B498" s="89"/>
       <c r="C498" s="38"/>
@@ -32893,7 +32982,7 @@
       <c r="AV498" s="18"/>
       <c r="AZ498" s="44"/>
     </row>
-    <row r="499" ht="18.75" spans="1:52">
+    <row r="499" ht="17.4" spans="1:52">
       <c r="A499" s="138"/>
       <c r="B499" s="89"/>
       <c r="C499" s="38"/>
@@ -32928,7 +33017,7 @@
       <c r="AV499" s="18"/>
       <c r="AZ499" s="44"/>
     </row>
-    <row r="500" ht="18.75" spans="1:52">
+    <row r="500" ht="17.4" spans="1:52">
       <c r="A500" s="138"/>
       <c r="B500" s="89"/>
       <c r="C500" s="38"/>
@@ -32963,7 +33052,7 @@
       <c r="AV500" s="82"/>
       <c r="AZ500" s="44"/>
     </row>
-    <row r="501" ht="18.75" spans="1:52">
+    <row r="501" ht="17.4" spans="1:52">
       <c r="A501" s="138"/>
       <c r="B501" s="89"/>
       <c r="C501" s="38"/>
@@ -32998,7 +33087,7 @@
       <c r="AV501" s="18"/>
       <c r="AZ501" s="44"/>
     </row>
-    <row r="502" ht="18.75" spans="1:52">
+    <row r="502" ht="17.4" spans="1:52">
       <c r="A502" s="138"/>
       <c r="B502" s="89"/>
       <c r="C502" s="38"/>
@@ -33033,7 +33122,7 @@
       <c r="AV502" s="18"/>
       <c r="AZ502" s="18"/>
     </row>
-    <row r="503" ht="18.75" spans="1:52">
+    <row r="503" ht="17.4" spans="1:52">
       <c r="A503" s="138"/>
       <c r="B503" s="89"/>
       <c r="C503" s="38"/>
@@ -33068,7 +33157,7 @@
       <c r="AV503" s="18"/>
       <c r="AZ503" s="44"/>
     </row>
-    <row r="504" ht="18.75" spans="1:52">
+    <row r="504" ht="17.4" spans="1:52">
       <c r="A504" s="138"/>
       <c r="B504" s="89"/>
       <c r="C504" s="38"/>
@@ -33103,7 +33192,7 @@
       <c r="AV504" s="18"/>
       <c r="AZ504" s="44"/>
     </row>
-    <row r="505" ht="18.75" spans="1:52">
+    <row r="505" ht="17.4" spans="1:52">
       <c r="A505" s="138"/>
       <c r="B505" s="89"/>
       <c r="C505" s="38"/>
@@ -33138,7 +33227,7 @@
       <c r="AV505" s="18"/>
       <c r="AZ505" s="18"/>
     </row>
-    <row r="506" ht="18.75" spans="1:52">
+    <row r="506" ht="17.4" spans="1:52">
       <c r="A506" s="138"/>
       <c r="B506" s="89"/>
       <c r="C506" s="38"/>
@@ -33173,7 +33262,7 @@
       <c r="AV506" s="18"/>
       <c r="AZ506" s="44"/>
     </row>
-    <row r="507" ht="18.75" spans="1:52">
+    <row r="507" ht="17.4" spans="1:52">
       <c r="A507" s="138"/>
       <c r="B507" s="89"/>
       <c r="C507" s="38"/>
@@ -33208,7 +33297,7 @@
       <c r="AV507" s="18"/>
       <c r="AZ507" s="44"/>
     </row>
-    <row r="508" ht="18.75" spans="1:52">
+    <row r="508" ht="17.4" spans="1:52">
       <c r="A508" s="138"/>
       <c r="B508" s="89"/>
       <c r="C508" s="38"/>
@@ -33243,7 +33332,7 @@
       <c r="AV508" s="18"/>
       <c r="AZ508" s="44"/>
     </row>
-    <row r="509" ht="18.75" spans="1:52">
+    <row r="509" ht="17.4" spans="1:52">
       <c r="A509" s="138"/>
       <c r="B509" s="89"/>
       <c r="C509" s="38"/>
@@ -33278,7 +33367,7 @@
       <c r="AV509" s="18"/>
       <c r="AZ509" s="44"/>
     </row>
-    <row r="510" ht="18.75" spans="1:52">
+    <row r="510" ht="17.4" spans="1:52">
       <c r="A510" s="138"/>
       <c r="B510" s="89"/>
       <c r="C510" s="38"/>
@@ -33313,7 +33402,7 @@
       <c r="AV510" s="18"/>
       <c r="AZ510" s="44"/>
     </row>
-    <row r="511" ht="18.75" spans="1:52">
+    <row r="511" ht="17.4" spans="1:52">
       <c r="A511" s="138"/>
       <c r="B511" s="89"/>
       <c r="C511" s="38"/>
@@ -33348,7 +33437,7 @@
       <c r="AV511" s="18"/>
       <c r="AZ511" s="18"/>
     </row>
-    <row r="512" ht="18.75" spans="1:52">
+    <row r="512" ht="17.4" spans="1:52">
       <c r="A512" s="138"/>
       <c r="B512" s="89"/>
       <c r="C512" s="38"/>
@@ -33383,7 +33472,7 @@
       <c r="AV512" s="18"/>
       <c r="AZ512" s="44"/>
     </row>
-    <row r="513" ht="18.75" spans="1:52">
+    <row r="513" ht="17.4" spans="1:52">
       <c r="A513" s="138"/>
       <c r="B513" s="89"/>
       <c r="C513" s="38"/>
@@ -33418,7 +33507,7 @@
       <c r="AV513" s="18"/>
       <c r="AZ513" s="18"/>
     </row>
-    <row r="514" ht="18.75" spans="1:52">
+    <row r="514" ht="17.4" spans="1:52">
       <c r="A514" s="138"/>
       <c r="B514" s="89"/>
       <c r="C514" s="38"/>
@@ -33453,7 +33542,7 @@
       <c r="AV514" s="82"/>
       <c r="AZ514" s="44"/>
     </row>
-    <row r="515" ht="18.75" spans="1:52">
+    <row r="515" ht="17.4" spans="1:52">
       <c r="A515" s="138"/>
       <c r="B515" s="89"/>
       <c r="C515" s="38"/>
@@ -33488,7 +33577,7 @@
       <c r="AV515" s="18"/>
       <c r="AZ515" s="44"/>
     </row>
-    <row r="516" ht="18.75" spans="1:52">
+    <row r="516" ht="17.4" spans="1:52">
       <c r="A516" s="138"/>
       <c r="B516" s="89"/>
       <c r="C516" s="38"/>
@@ -33523,7 +33612,7 @@
       <c r="AV516" s="18"/>
       <c r="AZ516" s="44"/>
     </row>
-    <row r="517" ht="18.75" spans="1:52">
+    <row r="517" ht="17.4" spans="1:52">
       <c r="A517" s="138"/>
       <c r="B517" s="89"/>
       <c r="C517" s="38"/>
@@ -33558,7 +33647,7 @@
       <c r="AV517" s="82"/>
       <c r="AZ517" s="44"/>
     </row>
-    <row r="518" ht="18.75" spans="1:52">
+    <row r="518" ht="17.4" spans="1:52">
       <c r="A518" s="138"/>
       <c r="B518" s="89"/>
       <c r="C518" s="38"/>
@@ -33593,7 +33682,7 @@
       <c r="AV518" s="18"/>
       <c r="AZ518" s="44"/>
     </row>
-    <row r="519" ht="18.75" spans="1:52">
+    <row r="519" ht="17.4" spans="1:52">
       <c r="A519" s="138"/>
       <c r="B519" s="89"/>
       <c r="C519" s="38"/>
@@ -33628,7 +33717,7 @@
       <c r="AV519" s="18"/>
       <c r="AZ519" s="44"/>
     </row>
-    <row r="520" ht="18.75" spans="1:52">
+    <row r="520" ht="17.4" spans="1:52">
       <c r="A520" s="138"/>
       <c r="B520" s="89"/>
       <c r="C520" s="38"/>
@@ -33663,7 +33752,7 @@
       <c r="AV520" s="82"/>
       <c r="AZ520" s="44"/>
     </row>
-    <row r="521" ht="18.75" spans="1:52">
+    <row r="521" ht="17.4" spans="1:52">
       <c r="A521" s="138"/>
       <c r="B521" s="89"/>
       <c r="C521" s="38"/>
@@ -33698,7 +33787,7 @@
       <c r="AV521" s="18"/>
       <c r="AZ521" s="18"/>
     </row>
-    <row r="522" ht="18.75" spans="1:52">
+    <row r="522" ht="17.4" spans="1:52">
       <c r="A522" s="138"/>
       <c r="B522" s="89"/>
       <c r="C522" s="38"/>
@@ -33733,7 +33822,7 @@
       <c r="AV522" s="18"/>
       <c r="AZ522" s="44"/>
     </row>
-    <row r="523" ht="18.75" spans="1:52">
+    <row r="523" ht="17.4" spans="1:52">
       <c r="A523" s="138"/>
       <c r="B523" s="89"/>
       <c r="C523" s="38"/>
@@ -33768,7 +33857,7 @@
       <c r="AV523" s="18"/>
       <c r="AZ523" s="18"/>
     </row>
-    <row r="524" ht="18.75" spans="1:52">
+    <row r="524" ht="17.4" spans="1:52">
       <c r="A524" s="138"/>
       <c r="B524" s="89"/>
       <c r="C524" s="38"/>
@@ -33803,7 +33892,7 @@
       <c r="AV524" s="18"/>
       <c r="AZ524" s="44"/>
     </row>
-    <row r="525" ht="18.75" spans="1:52">
+    <row r="525" ht="17.4" spans="1:52">
       <c r="A525" s="138"/>
       <c r="B525" s="89"/>
       <c r="C525" s="38"/>
@@ -33838,7 +33927,7 @@
       <c r="AV525" s="18"/>
       <c r="AZ525" s="44"/>
     </row>
-    <row r="526" ht="18.75" spans="1:52">
+    <row r="526" ht="17.4" spans="1:52">
       <c r="A526" s="138"/>
       <c r="B526" s="89"/>
       <c r="C526" s="38"/>
@@ -33873,7 +33962,7 @@
       <c r="AV526" s="18"/>
       <c r="AZ526" s="44"/>
     </row>
-    <row r="527" ht="18.75" spans="1:52">
+    <row r="527" ht="17.4" spans="1:52">
       <c r="A527" s="138"/>
       <c r="B527" s="89"/>
       <c r="C527" s="38"/>
@@ -33908,7 +33997,7 @@
       <c r="AV527" s="18"/>
       <c r="AZ527" s="44"/>
     </row>
-    <row r="528" ht="18.75" spans="1:52">
+    <row r="528" ht="17.4" spans="1:52">
       <c r="A528" s="138"/>
       <c r="B528" s="89"/>
       <c r="C528" s="38"/>
@@ -33943,7 +34032,7 @@
       <c r="AV528" s="18"/>
       <c r="AZ528" s="44"/>
     </row>
-    <row r="529" ht="18.75" spans="1:52">
+    <row r="529" ht="17.4" spans="1:52">
       <c r="A529" s="138"/>
       <c r="B529" s="89"/>
       <c r="C529" s="38"/>
@@ -33978,7 +34067,7 @@
       <c r="AV529" s="18"/>
       <c r="AZ529" s="44"/>
     </row>
-    <row r="530" ht="18.75" spans="1:52">
+    <row r="530" ht="17.4" spans="1:52">
       <c r="A530" s="138"/>
       <c r="B530" s="89"/>
       <c r="C530" s="38"/>
@@ -34013,7 +34102,7 @@
       <c r="AV530" s="18"/>
       <c r="AZ530" s="18"/>
     </row>
-    <row r="531" ht="18.75" spans="1:52">
+    <row r="531" ht="17.4" spans="1:52">
       <c r="A531" s="138"/>
       <c r="B531" s="89"/>
       <c r="C531" s="38"/>
@@ -34048,7 +34137,7 @@
       <c r="AV531" s="18"/>
       <c r="AZ531" s="44"/>
     </row>
-    <row r="532" ht="18.75" spans="1:52">
+    <row r="532" ht="17.4" spans="1:52">
       <c r="A532" s="138"/>
       <c r="B532" s="89"/>
       <c r="C532" s="38"/>
@@ -34083,7 +34172,7 @@
       <c r="AV532" s="82"/>
       <c r="AZ532" s="44"/>
     </row>
-    <row r="533" ht="18.75" spans="1:52">
+    <row r="533" ht="17.4" spans="1:52">
       <c r="A533" s="138"/>
       <c r="B533" s="89"/>
       <c r="C533" s="38"/>
@@ -34118,7 +34207,7 @@
       <c r="AV533" s="18"/>
       <c r="AZ533" s="44"/>
     </row>
-    <row r="534" ht="18.75" spans="1:52">
+    <row r="534" ht="17.4" spans="1:52">
       <c r="A534" s="138"/>
       <c r="B534" s="89"/>
       <c r="C534" s="38"/>
@@ -34153,7 +34242,7 @@
       <c r="AV534" s="18"/>
       <c r="AZ534" s="44"/>
     </row>
-    <row r="535" ht="18.75" spans="1:52">
+    <row r="535" ht="17.4" spans="1:52">
       <c r="A535" s="138"/>
       <c r="B535" s="89"/>
       <c r="C535" s="38"/>
@@ -34188,7 +34277,7 @@
       <c r="AV535" s="18"/>
       <c r="AZ535" s="44"/>
     </row>
-    <row r="536" ht="18.75" spans="1:52">
+    <row r="536" ht="17.4" spans="1:52">
       <c r="A536" s="138"/>
       <c r="B536" s="89"/>
       <c r="C536" s="38"/>
@@ -34223,7 +34312,7 @@
       <c r="AV536" s="18"/>
       <c r="AZ536" s="18"/>
     </row>
-    <row r="537" ht="18.75" spans="1:52">
+    <row r="537" ht="17.4" spans="1:52">
       <c r="A537" s="138"/>
       <c r="B537" s="89"/>
       <c r="C537" s="38"/>
@@ -34258,7 +34347,7 @@
       <c r="AV537" s="18"/>
       <c r="AZ537" s="18"/>
     </row>
-    <row r="538" ht="18.75" spans="1:52">
+    <row r="538" ht="17.4" spans="1:52">
       <c r="A538" s="138"/>
       <c r="B538" s="89"/>
       <c r="C538" s="38"/>
@@ -34293,7 +34382,7 @@
       <c r="AV538" s="18"/>
       <c r="AZ538" s="18"/>
     </row>
-    <row r="539" ht="18.75" spans="1:52">
+    <row r="539" ht="17.4" spans="1:52">
       <c r="A539" s="138"/>
       <c r="B539" s="89"/>
       <c r="C539" s="38"/>
@@ -34328,7 +34417,7 @@
       <c r="AV539" s="18"/>
       <c r="AZ539" s="18"/>
     </row>
-    <row r="540" ht="18.75" spans="1:52">
+    <row r="540" ht="17.4" spans="1:52">
       <c r="A540" s="138"/>
       <c r="B540" s="89"/>
       <c r="C540" s="38"/>
@@ -34363,7 +34452,7 @@
       <c r="AV540" s="18"/>
       <c r="AZ540" s="44"/>
     </row>
-    <row r="541" ht="18.75" spans="1:52">
+    <row r="541" ht="17.4" spans="1:52">
       <c r="A541" s="138"/>
       <c r="B541" s="89"/>
       <c r="C541" s="38"/>
@@ -34398,7 +34487,7 @@
       <c r="AV541" s="18"/>
       <c r="AZ541" s="18"/>
     </row>
-    <row r="542" ht="18.75" spans="1:52">
+    <row r="542" ht="17.4" spans="1:52">
       <c r="A542" s="138"/>
       <c r="B542" s="89"/>
       <c r="C542" s="38"/>
@@ -34433,7 +34522,7 @@
       <c r="AV542" s="18"/>
       <c r="AZ542" s="18"/>
     </row>
-    <row r="543" ht="18.75" spans="1:52">
+    <row r="543" ht="17.4" spans="1:52">
       <c r="A543" s="138"/>
       <c r="B543" s="89"/>
       <c r="C543" s="38"/>
@@ -34468,7 +34557,7 @@
       <c r="AV543" s="18"/>
       <c r="AZ543" s="44"/>
     </row>
-    <row r="544" ht="18.75" spans="1:52">
+    <row r="544" ht="17.4" spans="1:52">
       <c r="A544" s="138"/>
       <c r="B544" s="89"/>
       <c r="C544" s="38"/>
@@ -34503,7 +34592,7 @@
       <c r="AV544" s="18"/>
       <c r="AZ544" s="44"/>
     </row>
-    <row r="545" ht="18.75" spans="1:52">
+    <row r="545" ht="17.4" spans="1:52">
       <c r="A545" s="138"/>
       <c r="B545" s="89"/>
       <c r="C545" s="38"/>
@@ -34538,7 +34627,7 @@
       <c r="AV545" s="18"/>
       <c r="AZ545" s="44"/>
     </row>
-    <row r="546" ht="18.75" spans="1:52">
+    <row r="546" ht="17.4" spans="1:52">
       <c r="A546" s="138"/>
       <c r="B546" s="89"/>
       <c r="C546" s="38"/>
@@ -34573,7 +34662,7 @@
       <c r="AV546" s="18"/>
       <c r="AZ546" s="44"/>
     </row>
-    <row r="547" ht="18.75" spans="1:52">
+    <row r="547" ht="17.4" spans="1:52">
       <c r="A547" s="138"/>
       <c r="B547" s="89"/>
       <c r="C547" s="38"/>
@@ -34608,7 +34697,7 @@
       <c r="AV547" s="18"/>
       <c r="AZ547" s="44"/>
     </row>
-    <row r="548" ht="18.75" spans="1:52">
+    <row r="548" ht="17.4" spans="1:52">
       <c r="A548" s="138"/>
       <c r="B548" s="89"/>
       <c r="C548" s="38"/>
@@ -34643,7 +34732,7 @@
       <c r="AV548" s="18"/>
       <c r="AZ548" s="44"/>
     </row>
-    <row r="549" ht="18.75" spans="1:52">
+    <row r="549" ht="17.4" spans="1:52">
       <c r="A549" s="138"/>
       <c r="B549" s="89"/>
       <c r="C549" s="38"/>
@@ -34678,7 +34767,7 @@
       <c r="AV549" s="18"/>
       <c r="AZ549" s="44"/>
     </row>
-    <row r="550" ht="18.75" spans="1:52">
+    <row r="550" ht="17.4" spans="1:52">
       <c r="A550" s="138"/>
       <c r="B550" s="89"/>
       <c r="C550" s="38"/>
@@ -34712,7 +34801,7 @@
       <c r="AV550" s="18"/>
       <c r="AZ550" s="44"/>
     </row>
-    <row r="551" ht="18.75" spans="1:52">
+    <row r="551" ht="17.4" spans="1:52">
       <c r="A551" s="138"/>
       <c r="B551" s="89"/>
       <c r="C551" s="38"/>
@@ -34746,7 +34835,7 @@
       <c r="AV551" s="18"/>
       <c r="AZ551" s="44"/>
     </row>
-    <row r="552" ht="18.75" spans="1:52">
+    <row r="552" ht="17.4" spans="1:52">
       <c r="A552" s="138"/>
       <c r="B552" s="89"/>
       <c r="C552" s="38"/>
@@ -34780,7 +34869,7 @@
       <c r="AV552" s="18"/>
       <c r="AZ552" s="44"/>
     </row>
-    <row r="553" ht="18.75" spans="1:52">
+    <row r="553" ht="17.4" spans="1:52">
       <c r="A553" s="138"/>
       <c r="B553" s="89"/>
       <c r="C553" s="38"/>
@@ -34814,7 +34903,7 @@
       <c r="AV553" s="82"/>
       <c r="AZ553" s="44"/>
     </row>
-    <row r="554" ht="18.75" spans="1:52">
+    <row r="554" ht="17.4" spans="1:52">
       <c r="A554" s="138"/>
       <c r="B554" s="89"/>
       <c r="C554" s="38"/>
@@ -34848,7 +34937,7 @@
       <c r="AV554" s="18"/>
       <c r="AZ554" s="44"/>
     </row>
-    <row r="555" ht="18.75" spans="1:52">
+    <row r="555" ht="17.4" spans="1:52">
       <c r="A555" s="138"/>
       <c r="B555" s="89"/>
       <c r="C555" s="38"/>
@@ -34882,7 +34971,7 @@
       <c r="AV555" s="18"/>
       <c r="AZ555" s="44"/>
     </row>
-    <row r="556" ht="18.75" spans="1:52">
+    <row r="556" ht="17.4" spans="1:52">
       <c r="A556" s="138"/>
       <c r="B556" s="89"/>
       <c r="C556" s="38"/>
@@ -34916,7 +35005,7 @@
       <c r="AV556" s="18"/>
       <c r="AZ556" s="44"/>
     </row>
-    <row r="557" ht="18.75" spans="1:52">
+    <row r="557" ht="17.4" spans="1:52">
       <c r="A557" s="138"/>
       <c r="B557" s="89"/>
       <c r="C557" s="38"/>
@@ -34950,7 +35039,7 @@
       <c r="AV557" s="18"/>
       <c r="AZ557" s="44"/>
     </row>
-    <row r="558" ht="18.75" spans="1:52">
+    <row r="558" ht="17.4" spans="1:52">
       <c r="A558" s="138"/>
       <c r="B558" s="89"/>
       <c r="C558" s="38"/>
@@ -34984,7 +35073,7 @@
       <c r="AV558" s="18"/>
       <c r="AZ558" s="44"/>
     </row>
-    <row r="559" ht="18.75" spans="1:52">
+    <row r="559" ht="17.4" spans="1:52">
       <c r="A559" s="138"/>
       <c r="B559" s="89"/>
       <c r="C559" s="38"/>
@@ -35018,7 +35107,7 @@
       <c r="AV559" s="18"/>
       <c r="AZ559" s="44"/>
     </row>
-    <row r="560" ht="18.75" spans="1:52">
+    <row r="560" ht="17.4" spans="1:52">
       <c r="A560" s="138"/>
       <c r="B560" s="89"/>
       <c r="C560" s="38"/>
@@ -35052,7 +35141,7 @@
       <c r="AV560" s="18"/>
       <c r="AZ560" s="18"/>
     </row>
-    <row r="561" ht="18.75" spans="1:52">
+    <row r="561" ht="17.4" spans="1:52">
       <c r="A561" s="138"/>
       <c r="B561" s="89"/>
       <c r="C561" s="38"/>
@@ -35086,7 +35175,7 @@
       <c r="AV561" s="18"/>
       <c r="AZ561" s="18"/>
     </row>
-    <row r="562" ht="18.75" spans="1:52">
+    <row r="562" ht="17.4" spans="1:52">
       <c r="A562" s="138"/>
       <c r="B562" s="89"/>
       <c r="C562" s="38"/>
@@ -35120,7 +35209,7 @@
       <c r="AV562" s="18"/>
       <c r="AZ562" s="44"/>
     </row>
-    <row r="563" ht="18.75" spans="1:52">
+    <row r="563" ht="17.4" spans="1:52">
       <c r="A563" s="138"/>
       <c r="B563" s="89"/>
       <c r="C563" s="38"/>
@@ -35154,7 +35243,7 @@
       <c r="AV563" s="18"/>
       <c r="AZ563" s="44"/>
     </row>
-    <row r="564" ht="18.75" spans="1:52">
+    <row r="564" ht="17.4" spans="1:52">
       <c r="A564" s="138"/>
       <c r="B564" s="89"/>
       <c r="C564" s="38"/>
@@ -35188,7 +35277,7 @@
       <c r="AV564" s="18"/>
       <c r="AZ564" s="44"/>
     </row>
-    <row r="565" ht="18.75" spans="1:52">
+    <row r="565" ht="17.4" spans="1:52">
       <c r="A565" s="138"/>
       <c r="B565" s="89"/>
       <c r="C565" s="38"/>
@@ -35222,7 +35311,7 @@
       <c r="AV565" s="18"/>
       <c r="AZ565" s="18"/>
     </row>
-    <row r="566" ht="18.75" spans="1:52">
+    <row r="566" ht="17.4" spans="1:52">
       <c r="A566" s="138"/>
       <c r="B566" s="89"/>
       <c r="C566" s="38"/>
@@ -35256,7 +35345,7 @@
       <c r="AV566" s="18"/>
       <c r="AZ566" s="18"/>
     </row>
-    <row r="567" ht="18.75" spans="1:52">
+    <row r="567" ht="17.4" spans="1:52">
       <c r="A567" s="138"/>
       <c r="B567" s="89"/>
       <c r="C567" s="38"/>
@@ -35290,7 +35379,7 @@
       <c r="AV567" s="18"/>
       <c r="AZ567" s="44"/>
     </row>
-    <row r="568" ht="18.75" spans="1:52">
+    <row r="568" ht="17.4" spans="1:52">
       <c r="A568" s="138"/>
       <c r="B568" s="89"/>
       <c r="C568" s="38"/>
@@ -35324,7 +35413,7 @@
       <c r="AV568" s="18"/>
       <c r="AZ568" s="44"/>
     </row>
-    <row r="569" ht="18.75" spans="1:52">
+    <row r="569" ht="17.4" spans="1:52">
       <c r="A569" s="138"/>
       <c r="B569" s="89"/>
       <c r="C569" s="38"/>
@@ -35358,7 +35447,7 @@
       <c r="AV569" s="18"/>
       <c r="AZ569" s="44"/>
     </row>
-    <row r="570" ht="18.75" spans="1:52">
+    <row r="570" ht="17.4" spans="1:52">
       <c r="A570" s="138"/>
       <c r="B570" s="89"/>
       <c r="C570" s="38"/>
@@ -35392,7 +35481,7 @@
       <c r="AV570" s="18"/>
       <c r="AZ570" s="44"/>
     </row>
-    <row r="571" ht="18.75" spans="1:52">
+    <row r="571" ht="17.4" spans="1:52">
       <c r="A571" s="138"/>
       <c r="B571" s="89"/>
       <c r="C571" s="38"/>
@@ -35426,7 +35515,7 @@
       <c r="AV571" s="18"/>
       <c r="AZ571" s="44"/>
     </row>
-    <row r="572" ht="18.75" spans="1:52">
+    <row r="572" ht="17.4" spans="1:52">
       <c r="A572" s="138"/>
       <c r="B572" s="89"/>
       <c r="C572" s="38"/>
@@ -35460,7 +35549,7 @@
       <c r="AV572" s="18"/>
       <c r="AZ572" s="18"/>
     </row>
-    <row r="573" ht="18.75" spans="1:52">
+    <row r="573" ht="17.4" spans="1:52">
       <c r="A573" s="138"/>
       <c r="B573" s="89"/>
       <c r="C573" s="135"/>
@@ -35528,7 +35617,7 @@
       <c r="AV574" s="102"/>
       <c r="AZ574" s="44"/>
     </row>
-    <row r="575" ht="18.75" spans="1:52">
+    <row r="575" ht="17.4" spans="1:52">
       <c r="A575" s="138"/>
       <c r="B575" s="50"/>
       <c r="C575" s="18"/>
@@ -35562,7 +35651,7 @@
       <c r="AV575" s="18"/>
       <c r="AZ575" s="44"/>
     </row>
-    <row r="576" ht="18.75" spans="1:52">
+    <row r="576" ht="17.4" spans="1:52">
       <c r="A576" s="138"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -35596,7 +35685,7 @@
       <c r="AV576" s="18"/>
       <c r="AZ576" s="44"/>
     </row>
-    <row r="577" ht="18.75" spans="1:52">
+    <row r="577" ht="17.4" spans="1:52">
       <c r="A577" s="138"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -35630,7 +35719,7 @@
       <c r="AV577" s="18"/>
       <c r="AZ577" s="44"/>
     </row>
-    <row r="578" ht="18.75" spans="1:52">
+    <row r="578" ht="17.4" spans="1:52">
       <c r="A578" s="138"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -35664,7 +35753,7 @@
       <c r="AV578" s="18"/>
       <c r="AZ578" s="44"/>
     </row>
-    <row r="579" ht="18.75" spans="1:52">
+    <row r="579" ht="17.4" spans="1:52">
       <c r="A579" s="138"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -35698,7 +35787,7 @@
       <c r="AV579" s="18"/>
       <c r="AZ579" s="44"/>
     </row>
-    <row r="580" ht="18.75" spans="1:52">
+    <row r="580" ht="17.4" spans="1:52">
       <c r="A580" s="138"/>
       <c r="B580" s="18"/>
       <c r="C580" s="89"/>
@@ -35732,7 +35821,7 @@
       <c r="AV580" s="89"/>
       <c r="AZ580" s="44"/>
     </row>
-    <row r="581" ht="18.75" spans="1:52">
+    <row r="581" ht="17.4" spans="1:52">
       <c r="A581" s="138"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -35766,7 +35855,7 @@
       <c r="AV581" s="18"/>
       <c r="AZ581" s="44"/>
     </row>
-    <row r="582" ht="18.75" spans="1:52">
+    <row r="582" ht="17.4" spans="1:52">
       <c r="A582" s="138"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -35800,7 +35889,7 @@
       <c r="AV582" s="18"/>
       <c r="AZ582" s="44"/>
     </row>
-    <row r="583" ht="18.75" spans="1:52">
+    <row r="583" ht="17.4" spans="1:52">
       <c r="A583" s="138"/>
       <c r="B583" s="137"/>
       <c r="C583" s="137"/>
@@ -35834,7 +35923,7 @@
       <c r="AV583" s="91"/>
       <c r="AZ583" s="137"/>
     </row>
-    <row r="584" ht="18.75" spans="1:52">
+    <row r="584" ht="17.4" spans="1:52">
       <c r="A584" s="138"/>
       <c r="B584" s="137"/>
       <c r="C584" s="137"/>
@@ -35868,7 +35957,7 @@
       <c r="AV584" s="91"/>
       <c r="AZ584" s="44"/>
     </row>
-    <row r="585" ht="18.75" spans="1:52">
+    <row r="585" ht="17.4" spans="1:52">
       <c r="A585" s="138"/>
       <c r="B585" s="137"/>
       <c r="C585" s="137"/>
@@ -35902,7 +35991,7 @@
       <c r="AV585" s="91"/>
       <c r="AZ585" s="44"/>
     </row>
-    <row r="586" ht="18.75" spans="1:52">
+    <row r="586" ht="17.4" spans="1:52">
       <c r="A586" s="138"/>
       <c r="B586" s="137"/>
       <c r="C586" s="137"/>
@@ -35936,7 +36025,7 @@
       <c r="AV586" s="91"/>
       <c r="AZ586" s="44"/>
     </row>
-    <row r="587" ht="18.75" spans="1:52">
+    <row r="587" ht="17.4" spans="1:52">
       <c r="A587" s="138"/>
       <c r="B587" s="173"/>
       <c r="C587" s="18"/>
@@ -35970,7 +36059,7 @@
       <c r="AV587" s="18"/>
       <c r="AZ587" s="18"/>
     </row>
-    <row r="588" ht="18.75" spans="1:52">
+    <row r="588" ht="17.4" spans="1:52">
       <c r="A588" s="138"/>
       <c r="B588" s="173"/>
       <c r="C588" s="18"/>
@@ -36004,7 +36093,7 @@
       <c r="AV588" s="18"/>
       <c r="AZ588" s="18"/>
     </row>
-    <row r="589" ht="18.75" spans="1:52">
+    <row r="589" ht="17.4" spans="1:52">
       <c r="A589" s="138"/>
       <c r="B589" s="173"/>
       <c r="C589" s="18"/>
@@ -36038,7 +36127,7 @@
       <c r="AV589" s="18"/>
       <c r="AZ589" s="18"/>
     </row>
-    <row r="590" ht="18.75" spans="1:52">
+    <row r="590" ht="17.4" spans="1:52">
       <c r="A590" s="138"/>
       <c r="B590" s="173"/>
       <c r="C590" s="18"/>
@@ -36072,7 +36161,7 @@
       <c r="AV590" s="18"/>
       <c r="AZ590" s="18"/>
     </row>
-    <row r="591" ht="18.75" spans="1:52">
+    <row r="591" ht="17.4" spans="1:52">
       <c r="A591" s="138"/>
       <c r="B591" s="173"/>
       <c r="C591" s="89"/>
@@ -36106,7 +36195,7 @@
       <c r="AV591" s="89"/>
       <c r="AZ591" s="18"/>
     </row>
-    <row r="592" ht="18.75" spans="1:52">
+    <row r="592" ht="17.4" spans="1:52">
       <c r="A592" s="138"/>
       <c r="B592" s="173"/>
       <c r="C592" s="18"/>
@@ -36140,7 +36229,7 @@
       <c r="AV592" s="18"/>
       <c r="AZ592" s="18"/>
     </row>
-    <row r="593" ht="18.75" spans="1:52">
+    <row r="593" ht="17.4" spans="1:52">
       <c r="A593" s="138"/>
       <c r="B593" s="173"/>
       <c r="C593" s="18"/>
@@ -36174,7 +36263,7 @@
       <c r="AV593" s="18"/>
       <c r="AZ593" s="18"/>
     </row>
-    <row r="594" ht="18.75" spans="1:52">
+    <row r="594" ht="17.4" spans="1:52">
       <c r="A594" s="138"/>
       <c r="B594" s="175"/>
       <c r="C594" s="176"/>
@@ -36208,7 +36297,7 @@
       <c r="AV594" s="174"/>
       <c r="AZ594" s="44"/>
     </row>
-    <row r="595" ht="18.75" spans="1:52">
+    <row r="595" ht="17.4" spans="1:52">
       <c r="A595" s="138"/>
       <c r="B595" s="173"/>
       <c r="C595" s="137"/>
@@ -36242,7 +36331,7 @@
       <c r="AV595" s="18"/>
       <c r="AZ595" s="44"/>
     </row>
-    <row r="596" ht="18.75" spans="1:52">
+    <row r="596" ht="17.4" spans="1:52">
       <c r="A596" s="138"/>
       <c r="B596" s="173"/>
       <c r="C596" s="176"/>
@@ -36276,7 +36365,7 @@
       <c r="AV596" s="174"/>
       <c r="AZ596" s="44"/>
     </row>
-    <row r="597" ht="18.75" spans="1:52">
+    <row r="597" ht="17.4" spans="1:52">
       <c r="A597" s="138"/>
       <c r="C597" s="18"/>
       <c r="E597" s="18"/>
@@ -36309,7 +36398,7 @@
       <c r="AV597" s="18"/>
       <c r="AZ597" s="44"/>
     </row>
-    <row r="598" ht="18.75" spans="1:52">
+    <row r="598" ht="17.4" spans="1:52">
       <c r="A598" s="138"/>
       <c r="B598" s="5"/>
       <c r="C598" s="102"/>
@@ -36343,7 +36432,7 @@
       <c r="AV598" s="102"/>
       <c r="AZ598" s="44"/>
     </row>
-    <row r="599" ht="18.75" spans="1:52">
+    <row r="599" ht="17.4" spans="1:52">
       <c r="A599" s="138"/>
       <c r="C599" s="18"/>
       <c r="E599" s="102"/>
@@ -36376,7 +36465,7 @@
       <c r="AV599" s="102"/>
       <c r="AZ599" s="44"/>
     </row>
-    <row r="600" ht="18.75" spans="1:52">
+    <row r="600" ht="17.4" spans="1:52">
       <c r="A600" s="138"/>
       <c r="C600" s="18"/>
       <c r="E600" s="102"/>
@@ -36409,7 +36498,7 @@
       <c r="AV600" s="102"/>
       <c r="AZ600" s="44"/>
     </row>
-    <row r="601" ht="18.75" spans="1:52">
+    <row r="601" ht="17.4" spans="1:52">
       <c r="A601" s="138"/>
       <c r="C601" s="18"/>
       <c r="E601" s="102"/>
@@ -36442,7 +36531,7 @@
       <c r="AV601" s="102"/>
       <c r="AZ601" s="44"/>
     </row>
-    <row r="602" ht="18.75" spans="1:52">
+    <row r="602" ht="17.4" spans="1:52">
       <c r="A602" s="138"/>
       <c r="C602" s="18"/>
       <c r="E602" s="178"/>
@@ -36475,7 +36564,7 @@
       <c r="AV602" s="178"/>
       <c r="AZ602" s="44"/>
     </row>
-    <row r="603" ht="18.75" spans="1:52">
+    <row r="603" ht="17.4" spans="1:52">
       <c r="A603" s="138"/>
       <c r="C603" s="18"/>
       <c r="E603" s="38"/>
@@ -36508,7 +36597,7 @@
       <c r="AV603" s="38"/>
       <c r="AZ603" s="44"/>
     </row>
-    <row r="604" ht="18.75" spans="1:52">
+    <row r="604" ht="17.4" spans="1:52">
       <c r="A604" s="138"/>
       <c r="C604" s="18"/>
       <c r="E604" s="136"/>
@@ -36541,7 +36630,7 @@
       <c r="AV604" s="136"/>
       <c r="AZ604" s="44"/>
     </row>
-    <row r="605" ht="18.75" spans="1:52">
+    <row r="605" ht="17.4" spans="1:52">
       <c r="A605" s="138"/>
       <c r="C605" s="18"/>
       <c r="E605" s="136"/>
@@ -36574,7 +36663,7 @@
       <c r="AV605" s="136"/>
       <c r="AZ605" s="44"/>
     </row>
-    <row r="606" ht="18.75" spans="1:52">
+    <row r="606" ht="17.4" spans="1:52">
       <c r="A606" s="138"/>
       <c r="C606" s="18"/>
       <c r="E606" s="136"/>
@@ -36607,7 +36696,7 @@
       <c r="AV606" s="136"/>
       <c r="AZ606" s="44"/>
     </row>
-    <row r="607" ht="18.75" spans="1:52">
+    <row r="607" ht="17.4" spans="1:52">
       <c r="A607" s="138"/>
       <c r="C607" s="18"/>
       <c r="E607" s="136"/>
@@ -36640,7 +36729,7 @@
       <c r="AV607" s="136"/>
       <c r="AZ607" s="44"/>
     </row>
-    <row r="608" ht="18.75" spans="1:52">
+    <row r="608" ht="17.4" spans="1:52">
       <c r="A608" s="138"/>
       <c r="C608" s="18"/>
       <c r="E608" s="136"/>
@@ -36673,7 +36762,7 @@
       <c r="AV608" s="136"/>
       <c r="AZ608" s="44"/>
     </row>
-    <row r="609" ht="18.75" spans="1:52">
+    <row r="609" ht="17.4" spans="1:52">
       <c r="A609" s="138"/>
       <c r="C609" s="18"/>
       <c r="E609" s="136"/>
@@ -36706,7 +36795,7 @@
       <c r="AV609" s="136"/>
       <c r="AZ609" s="44"/>
     </row>
-    <row r="610" ht="18.75" spans="1:52">
+    <row r="610" ht="17.4" spans="1:52">
       <c r="A610" s="138"/>
       <c r="C610" s="18"/>
       <c r="E610" s="136"/>
@@ -36739,7 +36828,7 @@
       <c r="AV610" s="136"/>
       <c r="AZ610" s="44"/>
     </row>
-    <row r="611" ht="18.75" spans="1:52">
+    <row r="611" ht="17.4" spans="1:52">
       <c r="A611" s="138"/>
       <c r="C611" s="18"/>
       <c r="E611" s="136"/>
@@ -36772,7 +36861,7 @@
       <c r="AV611" s="136"/>
       <c r="AZ611" s="44"/>
     </row>
-    <row r="612" ht="18.75" spans="1:52">
+    <row r="612" ht="17.4" spans="1:52">
       <c r="A612" s="138"/>
       <c r="C612" s="18"/>
       <c r="E612" s="136"/>
@@ -36805,7 +36894,7 @@
       <c r="AV612" s="136"/>
       <c r="AZ612" s="44"/>
     </row>
-    <row r="613" ht="18.75" spans="1:52">
+    <row r="613" ht="17.4" spans="1:52">
       <c r="A613" s="138"/>
       <c r="C613" s="18"/>
       <c r="E613" s="136"/>
@@ -36838,7 +36927,7 @@
       <c r="AV613" s="136"/>
       <c r="AZ613" s="44"/>
     </row>
-    <row r="614" ht="18.75" spans="1:52">
+    <row r="614" ht="17.4" spans="1:52">
       <c r="A614" s="138"/>
       <c r="C614" s="18"/>
       <c r="E614" s="136"/>
@@ -36871,7 +36960,7 @@
       <c r="AV614" s="136"/>
       <c r="AZ614" s="44"/>
     </row>
-    <row r="615" ht="18.75" spans="1:52">
+    <row r="615" ht="17.4" spans="1:52">
       <c r="A615" s="138"/>
       <c r="C615" s="18"/>
       <c r="E615" s="136"/>
@@ -36904,7 +36993,7 @@
       <c r="AV615" s="136"/>
       <c r="AZ615" s="136"/>
     </row>
-    <row r="616" ht="18.75" spans="1:52">
+    <row r="616" ht="17.4" spans="1:52">
       <c r="A616" s="138"/>
       <c r="C616" s="18"/>
       <c r="E616" s="136"/>
@@ -36937,7 +37026,7 @@
       <c r="AV616" s="136"/>
       <c r="AZ616" s="44"/>
     </row>
-    <row r="617" ht="18.75" spans="1:52">
+    <row r="617" ht="17.4" spans="1:52">
       <c r="A617" s="138"/>
       <c r="C617" s="18"/>
       <c r="E617" s="136"/>
@@ -36970,7 +37059,7 @@
       <c r="AV617" s="136"/>
       <c r="AZ617" s="44"/>
     </row>
-    <row r="618" ht="18.75" spans="1:52">
+    <row r="618" ht="17.4" spans="1:52">
       <c r="A618" s="138"/>
       <c r="C618" s="18"/>
       <c r="E618" s="136"/>
@@ -37003,7 +37092,7 @@
       <c r="AV618" s="136"/>
       <c r="AZ618" s="156"/>
     </row>
-    <row r="619" ht="18.75" spans="1:52">
+    <row r="619" ht="17.4" spans="1:52">
       <c r="A619" s="138"/>
       <c r="C619" s="18"/>
       <c r="E619" s="136"/>
@@ -37036,7 +37125,7 @@
       <c r="AV619" s="136"/>
       <c r="AZ619" s="44"/>
     </row>
-    <row r="620" ht="18.75" spans="1:52">
+    <row r="620" ht="17.4" spans="1:52">
       <c r="A620" s="138"/>
       <c r="C620" s="18"/>
       <c r="E620" s="136"/>
@@ -37069,7 +37158,7 @@
       <c r="AV620" s="136"/>
       <c r="AZ620" s="44"/>
     </row>
-    <row r="621" ht="18.75" spans="1:52">
+    <row r="621" ht="17.4" spans="1:52">
       <c r="A621" s="138"/>
       <c r="C621" s="18"/>
       <c r="E621" s="182"/>
@@ -37102,7 +37191,7 @@
       <c r="AV621" s="182"/>
       <c r="AZ621" s="44"/>
     </row>
-    <row r="622" ht="18.75" spans="1:52">
+    <row r="622" ht="17.4" spans="1:52">
       <c r="A622" s="138"/>
       <c r="C622" s="18"/>
       <c r="E622" s="18"/>
@@ -37135,7 +37224,7 @@
       <c r="AV622" s="18"/>
       <c r="AZ622" s="44"/>
     </row>
-    <row r="623" ht="18.75" spans="1:52">
+    <row r="623" ht="17.4" spans="1:52">
       <c r="A623" s="138"/>
       <c r="C623" s="18"/>
       <c r="E623" s="102"/>
@@ -37168,7 +37257,7 @@
       <c r="AV623" s="102"/>
       <c r="AZ623" s="44"/>
     </row>
-    <row r="624" ht="18.75" spans="1:52">
+    <row r="624" ht="17.4" spans="1:52">
       <c r="A624" s="138"/>
       <c r="C624" s="18"/>
       <c r="E624" s="102"/>
@@ -37201,7 +37290,7 @@
       <c r="AV624" s="102"/>
       <c r="AZ624" s="44"/>
     </row>
-    <row r="625" ht="18.75" spans="1:52">
+    <row r="625" ht="17.4" spans="1:52">
       <c r="A625" s="138"/>
       <c r="C625" s="89"/>
       <c r="E625" s="184"/>
@@ -37234,7 +37323,7 @@
       <c r="AV625" s="184"/>
       <c r="AZ625" s="44"/>
     </row>
-    <row r="626" ht="18.75" spans="1:52">
+    <row r="626" ht="17.4" spans="1:52">
       <c r="A626" s="138"/>
       <c r="B626" s="5"/>
       <c r="C626" s="18"/>
@@ -37268,7 +37357,7 @@
       <c r="AV626" s="18"/>
       <c r="AZ626" s="44"/>
     </row>
-    <row r="627" ht="18.75" spans="1:52">
+    <row r="627" ht="17.4" spans="1:52">
       <c r="A627" s="138"/>
       <c r="C627" s="18"/>
       <c r="E627" s="18"/>
@@ -37301,7 +37390,7 @@
       <c r="AV627" s="18"/>
       <c r="AZ627" s="44"/>
     </row>
-    <row r="628" ht="18.75" spans="1:52">
+    <row r="628" ht="17.4" spans="1:52">
       <c r="A628" s="138"/>
       <c r="C628" s="18"/>
       <c r="E628" s="18"/>
@@ -37334,7 +37423,7 @@
       <c r="AV628" s="18"/>
       <c r="AZ628" s="44"/>
     </row>
-    <row r="629" ht="18.75" spans="1:52">
+    <row r="629" ht="17.4" spans="1:52">
       <c r="A629" s="138"/>
       <c r="C629" s="18"/>
       <c r="E629" s="18"/>
@@ -37367,7 +37456,7 @@
       <c r="AV629" s="18"/>
       <c r="AZ629" s="44"/>
     </row>
-    <row r="630" ht="18.75" spans="1:52">
+    <row r="630" ht="17.4" spans="1:52">
       <c r="A630" s="138"/>
       <c r="C630" s="186"/>
       <c r="E630" s="137"/>
@@ -37400,7 +37489,7 @@
       <c r="AV630" s="137"/>
       <c r="AZ630" s="44"/>
     </row>
-    <row r="631" ht="18.75" spans="1:52">
+    <row r="631" ht="17.4" spans="1:52">
       <c r="A631" s="138"/>
       <c r="C631" s="186"/>
       <c r="E631" s="137"/>
@@ -37433,7 +37522,7 @@
       <c r="AV631" s="137"/>
       <c r="AZ631" s="44"/>
     </row>
-    <row r="632" ht="18.75" spans="1:52">
+    <row r="632" ht="17.4" spans="1:52">
       <c r="A632" s="138"/>
       <c r="C632" s="186"/>
       <c r="E632" s="137"/>
@@ -37466,7 +37555,7 @@
       <c r="AV632" s="137"/>
       <c r="AZ632" s="44"/>
     </row>
-    <row r="633" ht="18.75" spans="1:52">
+    <row r="633" ht="17.4" spans="1:52">
       <c r="A633" s="138"/>
       <c r="C633" s="186"/>
       <c r="E633" s="137"/>
@@ -37499,7 +37588,7 @@
       <c r="AV633" s="137"/>
       <c r="AZ633" s="44"/>
     </row>
-    <row r="634" ht="18.75" spans="1:52">
+    <row r="634" ht="17.4" spans="1:52">
       <c r="A634" s="138"/>
       <c r="B634" s="5"/>
       <c r="C634" s="187"/>
@@ -37533,7 +37622,7 @@
       <c r="AV634" s="205"/>
       <c r="AZ634" s="44"/>
     </row>
-    <row r="635" ht="18.75" spans="1:52">
+    <row r="635" ht="17.4" spans="1:52">
       <c r="A635" s="138"/>
       <c r="B635" s="5"/>
       <c r="C635" s="189"/>
@@ -37567,7 +37656,7 @@
       <c r="AV635" s="137"/>
       <c r="AZ635" s="44"/>
     </row>
-    <row r="636" ht="18.75" spans="1:52">
+    <row r="636" ht="17.4" spans="1:52">
       <c r="A636" s="138"/>
       <c r="C636" s="189"/>
       <c r="E636" s="189"/>
@@ -37600,7 +37689,7 @@
       <c r="AV636" s="137"/>
       <c r="AZ636" s="44"/>
     </row>
-    <row r="637" ht="18.75" spans="1:52">
+    <row r="637" ht="17.4" spans="1:52">
       <c r="A637" s="138"/>
       <c r="C637" s="189"/>
       <c r="E637" s="189"/>
@@ -37633,7 +37722,7 @@
       <c r="AV637" s="137"/>
       <c r="AZ637" s="44"/>
     </row>
-    <row r="638" ht="18.75" spans="1:52">
+    <row r="638" ht="17.4" spans="1:52">
       <c r="A638" s="138"/>
       <c r="C638" s="187"/>
       <c r="E638" s="89"/>
@@ -37666,7 +37755,7 @@
       <c r="AV638" s="176"/>
       <c r="AZ638" s="44"/>
     </row>
-    <row r="639" ht="18.75" spans="1:52">
+    <row r="639" ht="17.4" spans="1:52">
       <c r="A639" s="138"/>
       <c r="C639" s="174"/>
       <c r="E639" s="192"/>
@@ -37699,7 +37788,7 @@
       <c r="AV639" s="193"/>
       <c r="AZ639" s="44"/>
     </row>
-    <row r="640" ht="18.75" spans="1:52">
+    <row r="640" ht="17.4" spans="1:52">
       <c r="A640" s="138"/>
       <c r="C640" s="174"/>
       <c r="E640" s="192"/>
@@ -37732,7 +37821,7 @@
       <c r="AV640" s="193"/>
       <c r="AZ640" s="192"/>
     </row>
-    <row r="641" ht="18.75" spans="1:52">
+    <row r="641" ht="17.4" spans="1:52">
       <c r="A641" s="138"/>
       <c r="C641" s="91"/>
       <c r="E641" s="192"/>
@@ -37765,7 +37854,7 @@
       <c r="AV641" s="193"/>
       <c r="AZ641" s="44"/>
     </row>
-    <row r="642" ht="18.75" spans="1:52">
+    <row r="642" ht="17.4" spans="1:52">
       <c r="A642" s="138"/>
       <c r="C642" s="174"/>
       <c r="E642" s="192"/>
@@ -37798,7 +37887,7 @@
       <c r="AV642" s="193"/>
       <c r="AZ642" s="44"/>
     </row>
-    <row r="643" ht="18.75" spans="1:52">
+    <row r="643" ht="17.4" spans="1:52">
       <c r="A643" s="138"/>
       <c r="C643" s="89"/>
       <c r="E643" s="89"/>
@@ -37831,7 +37920,7 @@
       <c r="AV643" s="89"/>
       <c r="AZ643" s="44"/>
     </row>
-    <row r="644" ht="18.75" spans="1:52">
+    <row r="644" ht="17.4" spans="1:52">
       <c r="A644" s="138"/>
       <c r="C644" s="89"/>
       <c r="E644" s="192"/>
@@ -37864,7 +37953,7 @@
       <c r="AV644" s="193"/>
       <c r="AZ644" s="44"/>
     </row>
-    <row r="645" ht="18.75" spans="1:52">
+    <row r="645" ht="17.4" spans="1:52">
       <c r="A645" s="138"/>
       <c r="C645" s="206"/>
       <c r="E645" s="192"/>
@@ -37897,7 +37986,7 @@
       <c r="AV645" s="193"/>
       <c r="AZ645" s="192"/>
     </row>
-    <row r="646" ht="18.75" spans="1:52">
+    <row r="646" ht="17.4" spans="1:52">
       <c r="A646" s="138"/>
       <c r="C646" s="207"/>
       <c r="E646" s="89"/>
@@ -37930,7 +38019,7 @@
       <c r="AV646" s="89"/>
       <c r="AZ646" s="89"/>
     </row>
-    <row r="647" ht="18.75" spans="1:52">
+    <row r="647" ht="17.4" spans="1:52">
       <c r="A647" s="138"/>
       <c r="C647" s="97"/>
       <c r="E647" s="97"/>
@@ -37963,7 +38052,7 @@
       <c r="AV647" s="97"/>
       <c r="AZ647" s="44"/>
     </row>
-    <row r="648" ht="18.75" spans="1:52">
+    <row r="648" ht="17.4" spans="1:52">
       <c r="A648" s="138"/>
       <c r="C648" s="97"/>
       <c r="E648" s="97"/>
@@ -37996,7 +38085,7 @@
       <c r="AV648" s="97"/>
       <c r="AZ648" s="44"/>
     </row>
-    <row r="649" ht="18.75" spans="1:52">
+    <row r="649" ht="17.4" spans="1:52">
       <c r="A649" s="138"/>
       <c r="C649" s="208"/>
       <c r="E649" s="209"/>
@@ -38029,7 +38118,7 @@
       <c r="AV649" s="209"/>
       <c r="AZ649" s="44"/>
     </row>
-    <row r="650" ht="18.75" spans="1:52">
+    <row r="650" ht="17.4" spans="1:52">
       <c r="A650" s="138"/>
       <c r="C650" s="208"/>
       <c r="E650" s="209"/>
@@ -38062,7 +38151,7 @@
       <c r="AV650" s="209"/>
       <c r="AZ650" s="45"/>
     </row>
-    <row r="651" ht="18.75" spans="1:52">
+    <row r="651" ht="17.4" spans="1:52">
       <c r="A651" s="138"/>
       <c r="C651" s="208"/>
       <c r="E651" s="209"/>
@@ -38095,7 +38184,7 @@
       <c r="AV651" s="209"/>
       <c r="AZ651" s="45"/>
     </row>
-    <row r="652" ht="18.75" spans="1:52">
+    <row r="652" ht="17.4" spans="1:52">
       <c r="A652" s="138"/>
       <c r="C652" s="208"/>
       <c r="E652" s="209"/>
@@ -38128,7 +38217,7 @@
       <c r="AV652" s="209"/>
       <c r="AZ652" s="44"/>
     </row>
-    <row r="653" ht="18.75" spans="1:52">
+    <row r="653" ht="17.4" spans="1:52">
       <c r="A653" s="138"/>
       <c r="C653" s="208"/>
       <c r="E653" s="209"/>
@@ -38161,7 +38250,7 @@
       <c r="AV653" s="209"/>
       <c r="AZ653" s="44"/>
     </row>
-    <row r="654" ht="18.75" spans="1:52">
+    <row r="654" ht="17.4" spans="1:52">
       <c r="A654" s="138"/>
       <c r="C654" s="208"/>
       <c r="E654" s="209"/>
@@ -38194,7 +38283,7 @@
       <c r="AV654" s="209"/>
       <c r="AZ654" s="44"/>
     </row>
-    <row r="655" ht="18.75" spans="1:52">
+    <row r="655" ht="17.4" spans="1:52">
       <c r="A655" s="138"/>
       <c r="C655" s="208"/>
       <c r="E655" s="209"/>
@@ -38227,7 +38316,7 @@
       <c r="AV655" s="209"/>
       <c r="AZ655" s="44"/>
     </row>
-    <row r="656" ht="18.75" spans="1:52">
+    <row r="656" ht="17.4" spans="1:52">
       <c r="A656" s="138"/>
       <c r="C656" s="208"/>
       <c r="E656" s="209"/>
@@ -38260,7 +38349,7 @@
       <c r="AV656" s="209"/>
       <c r="AZ656" s="44"/>
     </row>
-    <row r="657" ht="18.75" spans="1:52">
+    <row r="657" ht="17.4" spans="1:52">
       <c r="A657" s="138"/>
       <c r="C657" s="208"/>
       <c r="E657" s="209"/>
@@ -38293,7 +38382,7 @@
       <c r="AV657" s="209"/>
       <c r="AZ657" s="44"/>
     </row>
-    <row r="658" ht="18.75" spans="1:52">
+    <row r="658" ht="17.4" spans="1:52">
       <c r="A658" s="138"/>
       <c r="C658" s="208"/>
       <c r="E658" s="209"/>
@@ -38326,7 +38415,7 @@
       <c r="AV658" s="209"/>
       <c r="AZ658" s="44"/>
     </row>
-    <row r="659" ht="18.75" spans="1:52">
+    <row r="659" ht="17.4" spans="1:52">
       <c r="A659" s="138"/>
       <c r="C659" s="208"/>
       <c r="E659" s="209"/>
@@ -38359,7 +38448,7 @@
       <c r="AV659" s="209"/>
       <c r="AZ659" s="44"/>
     </row>
-    <row r="660" ht="18.75" spans="1:52">
+    <row r="660" ht="17.4" spans="1:52">
       <c r="A660" s="138"/>
       <c r="C660" s="210"/>
       <c r="E660" s="205"/>
@@ -38392,7 +38481,7 @@
       <c r="AV660" s="205"/>
       <c r="AZ660" s="44"/>
     </row>
-    <row r="661" ht="18.75" spans="1:52">
+    <row r="661" ht="17.4" spans="1:52">
       <c r="A661" s="138"/>
       <c r="C661" s="18"/>
       <c r="E661" s="18"/>
@@ -38425,7 +38514,7 @@
       <c r="AV661" s="18"/>
       <c r="AZ661" s="44"/>
     </row>
-    <row r="662" ht="18.75" spans="1:52">
+    <row r="662" ht="17.4" spans="1:52">
       <c r="A662" s="138"/>
       <c r="C662" s="89"/>
       <c r="E662" s="187"/>
@@ -38458,7 +38547,7 @@
       <c r="AV662" s="174"/>
       <c r="AZ662" s="18"/>
     </row>
-    <row r="663" ht="18.75" spans="1:52">
+    <row r="663" ht="17.4" spans="1:52">
       <c r="A663" s="138"/>
       <c r="C663" s="18"/>
       <c r="E663" s="18"/>
@@ -38491,7 +38580,7 @@
       <c r="AV663" s="18"/>
       <c r="AZ663" s="44"/>
     </row>
-    <row r="664" ht="18.75" spans="1:52">
+    <row r="664" ht="17.4" spans="1:52">
       <c r="A664" s="138"/>
       <c r="C664" s="186"/>
       <c r="E664" s="137"/>
@@ -38524,7 +38613,7 @@
       <c r="AV664" s="137"/>
       <c r="AZ664" s="137"/>
     </row>
-    <row r="665" ht="18.75" spans="1:52">
+    <row r="665" ht="17.4" spans="1:52">
       <c r="A665" s="138"/>
       <c r="C665" s="186"/>
       <c r="E665" s="137"/>
@@ -38557,7 +38646,7 @@
       <c r="AV665" s="137"/>
       <c r="AZ665" s="137"/>
     </row>
-    <row r="666" ht="18.75" spans="1:52">
+    <row r="666" ht="17.4" spans="1:52">
       <c r="A666" s="138"/>
       <c r="C666" s="186"/>
       <c r="E666" s="137"/>
@@ -38590,7 +38679,7 @@
       <c r="AV666" s="137"/>
       <c r="AZ666" s="44"/>
     </row>
-    <row r="667" ht="18.75" spans="1:52">
+    <row r="667" ht="17.4" spans="1:52">
       <c r="A667" s="138"/>
       <c r="C667" s="186"/>
       <c r="E667" s="137"/>
@@ -38623,7 +38712,7 @@
       <c r="AV667" s="137"/>
       <c r="AZ667" s="44"/>
     </row>
-    <row r="668" ht="18.75" spans="1:52">
+    <row r="668" ht="17.4" spans="1:52">
       <c r="A668" s="138"/>
       <c r="C668" s="186"/>
       <c r="E668" s="137"/>
@@ -38656,7 +38745,7 @@
       <c r="AV668" s="137"/>
       <c r="AZ668" s="137"/>
     </row>
-    <row r="669" ht="18.75" spans="1:52">
+    <row r="669" ht="17.4" spans="1:52">
       <c r="A669" s="138"/>
       <c r="C669" s="186"/>
       <c r="E669" s="137"/>
@@ -38689,7 +38778,7 @@
       <c r="AV669" s="137"/>
       <c r="AZ669" s="44"/>
     </row>
-    <row r="670" ht="18.75" spans="1:52">
+    <row r="670" ht="17.4" spans="1:52">
       <c r="A670" s="138"/>
       <c r="C670" s="186"/>
       <c r="E670" s="74"/>
@@ -38722,7 +38811,7 @@
       <c r="AV670" s="74"/>
       <c r="AZ670" s="74"/>
     </row>
-    <row r="671" ht="18.75" spans="1:52">
+    <row r="671" ht="17.4" spans="1:52">
       <c r="A671" s="138"/>
       <c r="C671" s="186"/>
       <c r="E671" s="74"/>
@@ -38755,7 +38844,7 @@
       <c r="AV671" s="74"/>
       <c r="AZ671" s="74"/>
     </row>
-    <row r="672" ht="18.75" spans="1:52">
+    <row r="672" ht="17.4" spans="1:52">
       <c r="A672" s="138"/>
       <c r="C672" s="186"/>
       <c r="E672" s="137"/>
@@ -38788,7 +38877,7 @@
       <c r="AV672" s="137"/>
       <c r="AZ672" s="44"/>
     </row>
-    <row r="673" ht="18.75" spans="1:52">
+    <row r="673" ht="17.4" spans="1:52">
       <c r="A673" s="138"/>
       <c r="C673" s="186"/>
       <c r="E673" s="137"/>
@@ -38821,7 +38910,7 @@
       <c r="AV673" s="137"/>
       <c r="AZ673" s="137"/>
     </row>
-    <row r="674" ht="18.75" spans="1:52">
+    <row r="674" ht="17.4" spans="1:52">
       <c r="A674" s="138"/>
       <c r="C674" s="186"/>
       <c r="E674" s="171"/>
@@ -38854,7 +38943,7 @@
       <c r="AV674" s="171"/>
       <c r="AZ674" s="171"/>
     </row>
-    <row r="675" ht="18.75" spans="1:52">
+    <row r="675" ht="17.4" spans="1:52">
       <c r="A675" s="138"/>
       <c r="C675" s="186"/>
       <c r="E675" s="137"/>
@@ -38887,7 +38976,7 @@
       <c r="AV675" s="137"/>
       <c r="AZ675" s="44"/>
     </row>
-    <row r="676" ht="18.75" spans="1:52">
+    <row r="676" ht="17.4" spans="1:52">
       <c r="A676" s="138"/>
       <c r="C676" s="186"/>
       <c r="E676" s="137"/>
@@ -38920,7 +39009,7 @@
       <c r="AV676" s="137"/>
       <c r="AZ676" s="137"/>
     </row>
-    <row r="677" ht="18.75" spans="1:52">
+    <row r="677" ht="17.4" spans="1:52">
       <c r="A677" s="138"/>
       <c r="C677" s="186"/>
       <c r="E677" s="137"/>
@@ -38953,7 +39042,7 @@
       <c r="AV677" s="137"/>
       <c r="AZ677" s="44"/>
     </row>
-    <row r="678" ht="18.75" spans="1:52">
+    <row r="678" ht="17.4" spans="1:52">
       <c r="A678" s="138"/>
       <c r="C678" s="186"/>
       <c r="E678" s="137"/>
@@ -38986,7 +39075,7 @@
       <c r="AV678" s="137"/>
       <c r="AZ678" s="44"/>
     </row>
-    <row r="679" ht="18.75" spans="1:52">
+    <row r="679" ht="17.4" spans="1:52">
       <c r="A679" s="138"/>
       <c r="C679" s="186"/>
       <c r="E679" s="74"/>
@@ -39019,7 +39108,7 @@
       <c r="AV679" s="74"/>
       <c r="AZ679" s="44"/>
     </row>
-    <row r="680" ht="18.75" spans="1:52">
+    <row r="680" ht="17.4" spans="1:52">
       <c r="A680" s="138"/>
       <c r="C680" s="187"/>
       <c r="E680" s="176"/>
@@ -39052,7 +39141,7 @@
       <c r="AV680" s="176"/>
       <c r="AZ680" s="44"/>
     </row>
-    <row r="681" ht="18.75" spans="1:52">
+    <row r="681" ht="17.4" spans="1:52">
       <c r="A681" s="138"/>
       <c r="C681" s="186"/>
       <c r="E681" s="186"/>
@@ -39085,7 +39174,7 @@
       <c r="AV681" s="211"/>
       <c r="AZ681" s="186"/>
     </row>
-    <row r="682" ht="18.75" spans="1:52">
+    <row r="682" ht="17.4" spans="1:52">
       <c r="A682" s="138"/>
       <c r="C682" s="187"/>
       <c r="E682" s="212"/>
@@ -39118,7 +39207,7 @@
       <c r="AV682" s="213"/>
       <c r="AZ682" s="44"/>
     </row>
-    <row r="683" ht="18.75" spans="1:52">
+    <row r="683" ht="17.4" spans="1:52">
       <c r="A683" s="138"/>
       <c r="C683" s="187"/>
       <c r="E683" s="212"/>
@@ -39151,7 +39240,7 @@
       <c r="AV683" s="212"/>
       <c r="AZ683" s="212"/>
     </row>
-    <row r="684" ht="18.75" spans="1:52">
+    <row r="684" ht="18" spans="1:52">
       <c r="A684" s="138"/>
       <c r="C684" s="214"/>
       <c r="E684" s="215"/>
@@ -39184,7 +39273,7 @@
       <c r="AV684" s="215"/>
       <c r="AZ684" s="44"/>
     </row>
-    <row r="685" ht="18.75" spans="1:52">
+    <row r="685" ht="18" spans="1:52">
       <c r="A685" s="138"/>
       <c r="C685" s="214"/>
       <c r="E685" s="215"/>
@@ -39221,7 +39310,7 @@
       <c r="P686" s="220"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA277" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA278" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="921">
   <si>
     <t>界面编号</t>
   </si>
@@ -3317,6 +3317,24 @@
   </si>
   <si>
     <t>STR_CALENDAR_SEVEN</t>
+  </si>
+  <si>
+    <t>更多</t>
+  </si>
+  <si>
+    <t>STR_MORE</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>常用应用</t>
+  </si>
+  <si>
+    <t>STR_COMMON_APP</t>
+  </si>
+  <si>
+    <t>Common applications</t>
   </si>
 </sst>
 </file>
@@ -5725,12 +5743,12 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F289" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -23459,11 +23477,19 @@
       <c r="AZ298" s="44"/>
     </row>
     <row r="299" ht="17.4" spans="1:52">
-      <c r="A299" s="111"/>
+      <c r="A299" s="111">
+        <v>293</v>
+      </c>
       <c r="B299" s="110"/>
-      <c r="C299" s="110"/>
-      <c r="D299" s="112"/>
-      <c r="E299" s="21"/>
+      <c r="C299" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="D299" s="112" t="s">
+        <v>916</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>917</v>
+      </c>
       <c r="F299" s="84"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
@@ -23510,11 +23536,19 @@
       <c r="AZ299" s="44"/>
     </row>
     <row r="300" ht="17.4" spans="1:52">
-      <c r="A300" s="111"/>
+      <c r="A300" s="111">
+        <v>294</v>
+      </c>
       <c r="B300" s="110"/>
-      <c r="C300" s="110"/>
-      <c r="D300" s="112"/>
-      <c r="E300" s="21"/>
+      <c r="C300" s="110" t="s">
+        <v>918</v>
+      </c>
+      <c r="D300" s="112" t="s">
+        <v>919</v>
+      </c>
+      <c r="E300" s="21" t="s">
+        <v>920</v>
+      </c>
       <c r="F300" s="84"/>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>

--- a/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1777">
   <si>
     <t>界面编号</t>
   </si>
@@ -5381,6 +5381,33 @@
   </si>
   <si>
     <t>Toccare lo schermo per scattare una foto.</t>
+  </si>
+  <si>
+    <t>更多详情请前往APP查看</t>
+  </si>
+  <si>
+    <t>STR_SPORT_FINISH_APP</t>
+  </si>
+  <si>
+    <t>Please go to App for more details.</t>
+  </si>
+  <si>
+    <t>انتقل إلى التطبيق على هاتفك للحصول على تفاصيل</t>
+  </si>
+  <si>
+    <t>См. подробнее в приложении на вашем смартфоне</t>
+  </si>
+  <si>
+    <t>詳細はアプリでご確認ください</t>
+  </si>
+  <si>
+    <t>Weitere Informationen finden Sie in der App</t>
+  </si>
+  <si>
+    <t>Accéder à l'appli sur votre téléphone pour en savoir plus.</t>
+  </si>
+  <si>
+    <t>Consulta l'app sul telefono per maggiori dettagli</t>
   </si>
 </sst>
 </file>
@@ -7774,11 +7801,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="R218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="R217" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
+      <selection pane="bottomRight" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -24612,30 +24639,50 @@
       <c r="BA223" s="2"/>
     </row>
     <row r="224" ht="50.25" customHeight="1" spans="1:53">
-      <c r="A224" s="12"/>
+      <c r="A224" s="12">
+        <v>222</v>
+      </c>
       <c r="B224" s="13"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="16"/>
-      <c r="F224" s="16"/>
-      <c r="G224" s="16"/>
+      <c r="C224" s="60" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F224" s="16" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>1772</v>
+      </c>
       <c r="H224" s="60"/>
       <c r="I224" s="60"/>
-      <c r="J224" s="16"/>
+      <c r="J224" s="16" t="s">
+        <v>1773</v>
+      </c>
       <c r="K224" s="21"/>
       <c r="L224" s="73"/>
       <c r="M224" s="60"/>
       <c r="N224" s="21"/>
-      <c r="O224" s="16"/>
+      <c r="O224" s="16" t="s">
+        <v>1774</v>
+      </c>
       <c r="P224" s="60"/>
       <c r="Q224" s="60"/>
       <c r="R224" s="27"/>
       <c r="S224" s="21"/>
-      <c r="T224" s="16"/>
+      <c r="T224" s="16" t="s">
+        <v>1775</v>
+      </c>
       <c r="U224" s="21"/>
       <c r="V224" s="60"/>
       <c r="W224" s="60"/>
-      <c r="X224" s="16"/>
+      <c r="X224" s="16" t="s">
+        <v>1776</v>
+      </c>
       <c r="Y224" s="60"/>
       <c r="Z224" s="21"/>
       <c r="AA224" s="60"/>

--- a/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1802">
   <si>
     <t>界面编号</t>
   </si>
@@ -5408,6 +5408,81 @@
   </si>
   <si>
     <t>Consulta l'app sul telefono per maggiori dettagli</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>STR_SPORT_ORDER</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>مرات</t>
+  </si>
+  <si>
+    <t>Раз</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>fois</t>
+  </si>
+  <si>
+    <t>Volte</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>STR_PAUSE</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>إيقاف مؤقت</t>
+  </si>
+  <si>
+    <t>Пауза</t>
+  </si>
+  <si>
+    <t>一時停止</t>
+  </si>
+  <si>
+    <t>Anhalten</t>
+  </si>
+  <si>
+    <t>Sospendi</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>STR_CLOSE</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>إغلاق</t>
+  </si>
+  <si>
+    <t>Выключить</t>
+  </si>
+  <si>
+    <t>オフ</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>Spento</t>
   </si>
 </sst>
 </file>
@@ -7801,11 +7876,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="R217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F218" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D224" sqref="D224"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:BA227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -24714,30 +24789,50 @@
       <c r="BA224" s="2"/>
     </row>
     <row r="225" ht="50.25" customHeight="1" spans="1:53">
-      <c r="A225" s="12"/>
+      <c r="A225" s="12">
+        <v>223</v>
+      </c>
       <c r="B225" s="13"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="16"/>
-      <c r="G225" s="16"/>
+      <c r="C225" s="60" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G225" s="16" t="s">
+        <v>1781</v>
+      </c>
       <c r="H225" s="60"/>
       <c r="I225" s="60"/>
-      <c r="J225" s="16"/>
+      <c r="J225" s="16" t="s">
+        <v>1782</v>
+      </c>
       <c r="K225" s="21"/>
       <c r="L225" s="73"/>
       <c r="M225" s="60"/>
       <c r="N225" s="22"/>
-      <c r="O225" s="16"/>
+      <c r="O225" s="16" t="s">
+        <v>1783</v>
+      </c>
       <c r="P225" s="60"/>
       <c r="Q225" s="60"/>
       <c r="R225" s="27"/>
       <c r="S225" s="26"/>
-      <c r="T225" s="16"/>
+      <c r="T225" s="16" t="s">
+        <v>1784</v>
+      </c>
       <c r="U225" s="21"/>
       <c r="V225" s="60"/>
       <c r="W225" s="60"/>
-      <c r="X225" s="16"/>
+      <c r="X225" s="16" t="s">
+        <v>1785</v>
+      </c>
       <c r="Y225" s="60"/>
       <c r="Z225" s="33"/>
       <c r="AA225" s="60"/>
@@ -24769,30 +24864,50 @@
       <c r="BA225" s="2"/>
     </row>
     <row r="226" ht="50.25" customHeight="1" spans="1:53">
-      <c r="A226" s="12"/>
+      <c r="A226" s="12">
+        <v>224</v>
+      </c>
       <c r="B226" s="13"/>
-      <c r="C226" s="60"/>
-      <c r="D226" s="15"/>
-      <c r="E226" s="16"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
+      <c r="C226" s="60" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>1790</v>
+      </c>
       <c r="H226" s="60"/>
       <c r="I226" s="60"/>
-      <c r="J226" s="16"/>
+      <c r="J226" s="16" t="s">
+        <v>1791</v>
+      </c>
       <c r="K226" s="21"/>
       <c r="L226" s="73"/>
       <c r="M226" s="60"/>
       <c r="N226" s="21"/>
-      <c r="O226" s="16"/>
+      <c r="O226" s="16" t="s">
+        <v>1792</v>
+      </c>
       <c r="P226" s="60"/>
       <c r="Q226" s="60"/>
       <c r="R226" s="27"/>
       <c r="S226" s="21"/>
-      <c r="T226" s="16"/>
+      <c r="T226" s="16" t="s">
+        <v>1788</v>
+      </c>
       <c r="U226" s="21"/>
       <c r="V226" s="60"/>
       <c r="W226" s="60"/>
-      <c r="X226" s="16"/>
+      <c r="X226" s="16" t="s">
+        <v>1793</v>
+      </c>
       <c r="Y226" s="60"/>
       <c r="Z226" s="21"/>
       <c r="AA226" s="60"/>
@@ -24824,30 +24939,50 @@
       <c r="BA226" s="2"/>
     </row>
     <row r="227" ht="50.25" customHeight="1" spans="1:53">
-      <c r="A227" s="12"/>
+      <c r="A227" s="12">
+        <v>225</v>
+      </c>
       <c r="B227" s="13"/>
-      <c r="C227" s="66"/>
-      <c r="D227" s="71"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
+      <c r="C227" s="66" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D227" s="71" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>1798</v>
+      </c>
       <c r="H227" s="66"/>
       <c r="I227" s="66"/>
-      <c r="J227" s="16"/>
+      <c r="J227" s="16" t="s">
+        <v>1799</v>
+      </c>
       <c r="K227" s="21"/>
       <c r="L227" s="100"/>
       <c r="M227" s="66"/>
       <c r="N227" s="21"/>
-      <c r="O227" s="16"/>
+      <c r="O227" s="16" t="s">
+        <v>1800</v>
+      </c>
       <c r="P227" s="18"/>
       <c r="Q227" s="66"/>
       <c r="R227" s="27"/>
       <c r="S227" s="21"/>
-      <c r="T227" s="16"/>
+      <c r="T227" s="16" t="s">
+        <v>1796</v>
+      </c>
       <c r="U227" s="21"/>
       <c r="V227" s="66"/>
       <c r="W227" s="66"/>
-      <c r="X227" s="16"/>
+      <c r="X227" s="16" t="s">
+        <v>1801</v>
+      </c>
       <c r="Y227" s="66"/>
       <c r="Z227" s="21"/>
       <c r="AA227" s="66"/>

--- a/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281/defaultLanguage/input.xlsx
@@ -1828,64 +1828,64 @@
     <t>勿擾模式</t>
   </si>
   <si>
-    <t>全天勿扰</t>
+    <t>全天开启</t>
   </si>
   <si>
     <t>STR_DISTURD_ALL</t>
   </si>
   <si>
-    <t>All-day do not disturb</t>
-  </si>
-  <si>
-    <t>لا تزعج طوال اليوم</t>
-  </si>
-  <si>
-    <t>Не беспокоить весь день</t>
-  </si>
-  <si>
-    <t>一日中邪魔しないでください</t>
-  </si>
-  <si>
-    <t>Stören Sie den ganzen Tag nicht</t>
-  </si>
-  <si>
-    <t>Ne pas déranger toute la journée</t>
-  </si>
-  <si>
-    <t>Non disturbare tutto il giorno</t>
-  </si>
-  <si>
-    <t>全天勿擾</t>
-  </si>
-  <si>
-    <t>定时勿扰</t>
+    <t>All day</t>
+  </si>
+  <si>
+    <t>طوال اليوم</t>
+  </si>
+  <si>
+    <t>Весь день</t>
+  </si>
+  <si>
+    <t>終日</t>
+  </si>
+  <si>
+    <t>Ganzer Tag</t>
+  </si>
+  <si>
+    <t>Toute la journée</t>
+  </si>
+  <si>
+    <t>Tutto il giorno</t>
+  </si>
+  <si>
+    <t>全天啟用</t>
+  </si>
+  <si>
+    <t>定时开启</t>
   </si>
   <si>
     <t>STR_DISTURD_TIM</t>
   </si>
   <si>
-    <t>Timed do not disturb</t>
-  </si>
-  <si>
-    <t>عدم الإزعاج في أوقات معينة</t>
-  </si>
-  <si>
-    <t>Не беспокоить в определенное время</t>
-  </si>
-  <si>
-    <t>特定の時間に邪魔しないでください</t>
-  </si>
-  <si>
-    <t>Zu bestimmten Zeiten nicht stören</t>
-  </si>
-  <si>
-    <t>Ne pas déranger à certaines heures</t>
-  </si>
-  <si>
-    <t>Non disturbare in determinati orari</t>
-  </si>
-  <si>
-    <t>定時勿擾</t>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>الجدول</t>
+  </si>
+  <si>
+    <t>По расписанию</t>
+  </si>
+  <si>
+    <t>時間帯</t>
+  </si>
+  <si>
+    <t>Zeitplan</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Programma</t>
+  </si>
+  <si>
+    <t>定時啟用</t>
   </si>
   <si>
     <t>开启后，来电和通知静音且不振动(闹钟除外)，抬腕不亮屏，是否开启？</t>
@@ -8755,7 +8755,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C249" sqref="C249"/>
+      <selection pane="bottomRight" activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
